--- a/StoredScrapedData/Testing_.xlsx
+++ b/StoredScrapedData/Testing_.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kendeas/Desktop/CypERN/04.Billion Prices Cyprus/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A99CFC-7938-A449-91D8-9B1206358FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -38,13 +32,124 @@
   </si>
   <si>
     <t>Retailer</t>
+  </si>
+  <si>
+    <t>2024-03-19</t>
+  </si>
+  <si>
+    <t>GLOSTAD διθέσιος καναπές</t>
+  </si>
+  <si>
+    <t>MELLTORP/ADDE τραπέζι και 4 καρέκλες</t>
+  </si>
+  <si>
+    <t>FEJAN πτυσσόμενη καρέκλα, εξωτερικού χώρου</t>
+  </si>
+  <si>
+    <t>BAGGEBO βιβλιοθήκη, 50x30x80 cm</t>
+  </si>
+  <si>
+    <t>GURSKEN σκελετός κρεβατιού με κεφαλάρι, 140x200 cm</t>
+  </si>
+  <si>
+    <t>GURSKEN ντουλάπα, 49x55x186 cm</t>
+  </si>
+  <si>
+    <t>GURSKEN συρταριέρα με 3 συρτάρια, 69x67 cm</t>
+  </si>
+  <si>
+    <t>KNARREVIK κομοδίνο</t>
+  </si>
+  <si>
+    <t>MARIUS Σκαμπό</t>
+  </si>
+  <si>
+    <t>TIPHEDE χαλί, χαμηλή πλέξη</t>
+  </si>
+  <si>
+    <t>KLAMPENBORG χαλάκι πόρτας/ εσωτερικού χώρου, 35x55 cm</t>
+  </si>
+  <si>
+    <t>POKAL Ποτήρι</t>
+  </si>
+  <si>
+    <t>OFTAST Πιάτο</t>
+  </si>
+  <si>
+    <t>OFTAST Μπολ</t>
+  </si>
+  <si>
+    <t>MOPSIG μαχαιροπίρουνα, σετ 16 τεμ.</t>
+  </si>
+  <si>
+    <t>ANNONS Σκεύη μαγειρικής, σετ 3 τεμ.</t>
+  </si>
+  <si>
+    <t>BARLAST επιτραπέζιο φωτιστικό, 31 cm</t>
+  </si>
+  <si>
+    <t>RESTAD φωτιστικό οροφής</t>
+  </si>
+  <si>
+    <t>TAGARP φωτιστικό δαπέδου/διαβάσματος</t>
+  </si>
+  <si>
+    <t>FORENLIG κασπό εσωτερικού/εξωτερικού χώρου</t>
+  </si>
+  <si>
+    <t>IKEA PS 2002 Ποτιστήρι</t>
+  </si>
+  <si>
+    <t>LURVIG μπολ,  0.3 l</t>
+  </si>
+  <si>
+    <t>LURVIG ανακλαστικοί ιμάντες</t>
+  </si>
+  <si>
+    <t>LURVIG φτυαράκι άμμου γάτας</t>
+  </si>
+  <si>
+    <t>Household furniture</t>
+  </si>
+  <si>
+    <t>Garden furniture</t>
+  </si>
+  <si>
+    <t>Other furniture and furnishings</t>
+  </si>
+  <si>
+    <t>Carpets and rugs</t>
+  </si>
+  <si>
+    <t>Glassware, crystal-ware, ceramic ware and chinaware</t>
+  </si>
+  <si>
+    <t>Cutlery, flatware and silverware</t>
+  </si>
+  <si>
+    <t>Lighting equipment</t>
+  </si>
+  <si>
+    <t>Garden products</t>
+  </si>
+  <si>
+    <t>Products for pets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FURNISHING, HOUSEHOLD EQUIPMENT AND SUPPLIES </t>
+  </si>
+  <si>
+    <t>RECREATION AND CULTURE</t>
+  </si>
+  <si>
+    <t>IKEA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,21 +212,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -159,7 +256,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -193,7 +290,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -228,10 +324,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -404,20 +499,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F49"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.83203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,6 +524,486 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>139</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>106.96</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>24.99</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>109</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>69.98999999999999</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>49.99</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>9.99</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>5.49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>9.99</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>2.49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>0.79</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>0.79</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>0.79</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>8.99</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>14.99</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>4.49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <v>12.99</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <v>19.99</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21">
+        <v>1.49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <v>1.79</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23">
+        <v>3.99</v>
+      </c>
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24">
+        <v>6.99</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>1.49</v>
+      </c>
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/StoredScrapedData/Testing_.xlsx
+++ b/StoredScrapedData/Testing_.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KinxGamer\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E047EE-2AE7-4ABD-A593-CE7CD6BFF76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
@@ -34,12 +28,18 @@
     <t>Subclass</t>
   </si>
   <si>
+    <t>Division</t>
+  </si>
+  <si>
     <t>Retailer</t>
   </si>
   <si>
     <t>2024-03-19</t>
   </si>
   <si>
+    <t>2024-03-20</t>
+  </si>
+  <si>
     <t>GLOSTAD διθέσιος καναπές</t>
   </si>
   <si>
@@ -146,16 +146,13 @@
   </si>
   <si>
     <t>IKEA</t>
-  </si>
-  <si>
-    <t>Division</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,21 +215,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -270,7 +259,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -304,7 +293,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -339,10 +327,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -515,16 +502,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,490 +523,970 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>139</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>106.96</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>24.99</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>69.989999999999995</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>49.99</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>9.99</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>5.49</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>9.99</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12">
-        <v>2.4900000000000002</v>
+        <v>2.49</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13">
         <v>0.79</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>0.79</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <v>0.79</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C16">
         <v>8.99</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C17">
         <v>14.99</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C18">
         <v>4.49</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C19">
         <v>12.99</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20">
-        <v>19.989999999999998</v>
+        <v>19.99</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C21">
         <v>1.49</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C22">
         <v>1.79</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C23">
         <v>3.99</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C24">
         <v>6.99</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C25">
         <v>1.49</v>
       </c>
       <c r="D25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>139</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>106.96</v>
+      </c>
+      <c r="D27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>24.99</v>
+      </c>
+      <c r="D29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>109</v>
+      </c>
+      <c r="D30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31">
+        <v>69.98999999999999</v>
+      </c>
+      <c r="D31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32">
+        <v>49.99</v>
+      </c>
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33">
+        <v>9.99</v>
+      </c>
+      <c r="D33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34">
+        <v>5.49</v>
+      </c>
+      <c r="D34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35">
+        <v>9.99</v>
+      </c>
+      <c r="D35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36">
+        <v>2.49</v>
+      </c>
+      <c r="D36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37">
+        <v>0.79</v>
+      </c>
+      <c r="D37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38">
+        <v>0.79</v>
+      </c>
+      <c r="D38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39">
+        <v>0.79</v>
+      </c>
+      <c r="D39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40">
+        <v>8.99</v>
+      </c>
+      <c r="D40" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41">
+        <v>14.99</v>
+      </c>
+      <c r="D41" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42">
+        <v>4.49</v>
+      </c>
+      <c r="D42" t="s">
         <v>38</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E42" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43">
+        <v>12.99</v>
+      </c>
+      <c r="D43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44">
+        <v>19.99</v>
+      </c>
+      <c r="D44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45">
+        <v>1.49</v>
+      </c>
+      <c r="D45" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" t="s">
+        <v>42</v>
+      </c>
+      <c r="F45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46">
+        <v>1.79</v>
+      </c>
+      <c r="D46" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47">
+        <v>3.99</v>
+      </c>
+      <c r="D47" t="s">
         <v>40</v>
       </c>
-      <c r="F25" t="s">
-        <v>41</v>
+      <c r="E47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48">
+        <v>6.99</v>
+      </c>
+      <c r="D48" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" t="s">
+        <v>42</v>
+      </c>
+      <c r="F48" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49">
+        <v>1.49</v>
+      </c>
+      <c r="D49" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" t="s">
+        <v>42</v>
+      </c>
+      <c r="F49" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/StoredScrapedData/Testing_.xlsx
+++ b/StoredScrapedData/Testing_.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="45">
   <si>
     <t>Date</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>2024-03-20</t>
+  </si>
+  <si>
+    <t>2024-03-21</t>
   </si>
   <si>
     <t>GLOSTAD διθέσιος καναπές</t>
@@ -503,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,19 +537,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>139</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -554,19 +557,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>106.96</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -574,19 +577,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -594,19 +597,19 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>24.99</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -614,19 +617,19 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -634,19 +637,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>69.98999999999999</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -654,19 +657,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>49.99</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -674,19 +677,19 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>9.99</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -694,19 +697,19 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>5.49</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -714,19 +717,19 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>9.99</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -734,19 +737,19 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>2.49</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -754,19 +757,19 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>0.79</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -774,19 +777,19 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14">
         <v>0.79</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -794,19 +797,19 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>0.79</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -814,19 +817,19 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16">
         <v>8.99</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -834,19 +837,19 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17">
         <v>14.99</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -854,19 +857,19 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18">
         <v>4.49</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -874,19 +877,19 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19">
         <v>12.99</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -894,19 +897,19 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20">
         <v>19.99</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -914,19 +917,19 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21">
         <v>1.49</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -934,19 +937,19 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22">
         <v>1.79</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -954,19 +957,19 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23">
         <v>3.99</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -974,19 +977,19 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C24">
         <v>6.99</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -994,19 +997,19 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C25">
         <v>1.49</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1014,19 +1017,19 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26">
         <v>139</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1034,19 +1037,19 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C27">
         <v>106.96</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1054,19 +1057,19 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28">
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1074,19 +1077,19 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C29">
         <v>24.99</v>
       </c>
       <c r="D29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1094,19 +1097,19 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C30">
         <v>109</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1114,19 +1117,19 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C31">
         <v>69.98999999999999</v>
       </c>
       <c r="D31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1134,19 +1137,19 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C32">
         <v>49.99</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1154,19 +1157,19 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C33">
         <v>9.99</v>
       </c>
       <c r="D33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1174,19 +1177,19 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C34">
         <v>5.49</v>
       </c>
       <c r="D34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1194,19 +1197,19 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C35">
         <v>9.99</v>
       </c>
       <c r="D35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1214,19 +1217,19 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C36">
         <v>2.49</v>
       </c>
       <c r="D36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1234,19 +1237,19 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C37">
         <v>0.79</v>
       </c>
       <c r="D37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1254,19 +1257,19 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C38">
         <v>0.79</v>
       </c>
       <c r="D38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1274,19 +1277,19 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C39">
         <v>0.79</v>
       </c>
       <c r="D39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1294,19 +1297,19 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C40">
         <v>8.99</v>
       </c>
       <c r="D40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1314,19 +1317,19 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C41">
         <v>14.99</v>
       </c>
       <c r="D41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1334,19 +1337,19 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C42">
         <v>4.49</v>
       </c>
       <c r="D42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1354,19 +1357,19 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C43">
         <v>12.99</v>
       </c>
       <c r="D43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1374,19 +1377,19 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C44">
         <v>19.99</v>
       </c>
       <c r="D44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1394,19 +1397,19 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C45">
         <v>1.49</v>
       </c>
       <c r="D45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1414,19 +1417,19 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C46">
         <v>1.79</v>
       </c>
       <c r="D46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1434,19 +1437,19 @@
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C47">
         <v>3.99</v>
       </c>
       <c r="D47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1454,19 +1457,19 @@
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C48">
         <v>6.99</v>
       </c>
       <c r="D48" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1474,19 +1477,499 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C49">
         <v>1.49</v>
       </c>
       <c r="D49" t="s">
+        <v>41</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50">
+        <v>139</v>
+      </c>
+      <c r="D50" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>106.96</v>
+      </c>
+      <c r="D51" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" t="s">
+        <v>42</v>
+      </c>
+      <c r="F51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <v>15</v>
+      </c>
+      <c r="D52" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" t="s">
+        <v>42</v>
+      </c>
+      <c r="F52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53">
+        <v>24.99</v>
+      </c>
+      <c r="D53" t="s">
+        <v>35</v>
+      </c>
+      <c r="E53" t="s">
+        <v>42</v>
+      </c>
+      <c r="F53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54">
+        <v>109</v>
+      </c>
+      <c r="D54" t="s">
+        <v>35</v>
+      </c>
+      <c r="E54" t="s">
+        <v>42</v>
+      </c>
+      <c r="F54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55">
+        <v>69.98999999999999</v>
+      </c>
+      <c r="D55" t="s">
+        <v>35</v>
+      </c>
+      <c r="E55" t="s">
+        <v>42</v>
+      </c>
+      <c r="F55" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56">
+        <v>49.99</v>
+      </c>
+      <c r="D56" t="s">
+        <v>35</v>
+      </c>
+      <c r="E56" t="s">
+        <v>42</v>
+      </c>
+      <c r="F56" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57">
+        <v>9.99</v>
+      </c>
+      <c r="D57" t="s">
+        <v>35</v>
+      </c>
+      <c r="E57" t="s">
+        <v>42</v>
+      </c>
+      <c r="F57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58">
+        <v>5.49</v>
+      </c>
+      <c r="D58" t="s">
+        <v>35</v>
+      </c>
+      <c r="E58" t="s">
+        <v>42</v>
+      </c>
+      <c r="F58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59">
+        <v>9.99</v>
+      </c>
+      <c r="D59" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" t="s">
+        <v>42</v>
+      </c>
+      <c r="F59" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60">
+        <v>2.49</v>
+      </c>
+      <c r="D60" t="s">
+        <v>36</v>
+      </c>
+      <c r="E60" t="s">
+        <v>42</v>
+      </c>
+      <c r="F60" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61">
+        <v>0.79</v>
+      </c>
+      <c r="D61" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" t="s">
+        <v>42</v>
+      </c>
+      <c r="F61" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62">
+        <v>0.79</v>
+      </c>
+      <c r="D62" t="s">
+        <v>37</v>
+      </c>
+      <c r="E62" t="s">
+        <v>42</v>
+      </c>
+      <c r="F62" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63">
+        <v>0.79</v>
+      </c>
+      <c r="D63" t="s">
+        <v>37</v>
+      </c>
+      <c r="E63" t="s">
+        <v>42</v>
+      </c>
+      <c r="F63" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64">
+        <v>8.99</v>
+      </c>
+      <c r="D64" t="s">
+        <v>38</v>
+      </c>
+      <c r="E64" t="s">
+        <v>42</v>
+      </c>
+      <c r="F64" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65">
+        <v>14.99</v>
+      </c>
+      <c r="D65" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" t="s">
+        <v>42</v>
+      </c>
+      <c r="F65" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66">
+        <v>4.49</v>
+      </c>
+      <c r="D66" t="s">
+        <v>39</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67">
+        <v>12.99</v>
+      </c>
+      <c r="D67" t="s">
+        <v>39</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68">
+        <v>19.99</v>
+      </c>
+      <c r="D68" t="s">
+        <v>39</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69">
+        <v>1.49</v>
+      </c>
+      <c r="D69" t="s">
         <v>40</v>
       </c>
-      <c r="E49" t="s">
-        <v>42</v>
-      </c>
-      <c r="F49" t="s">
-        <v>43</v>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70">
+        <v>1.79</v>
+      </c>
+      <c r="D70" t="s">
+        <v>40</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" t="s">
+        <v>30</v>
+      </c>
+      <c r="C71">
+        <v>3.99</v>
+      </c>
+      <c r="D71" t="s">
+        <v>41</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" t="s">
+        <v>31</v>
+      </c>
+      <c r="C72">
+        <v>6.99</v>
+      </c>
+      <c r="D72" t="s">
+        <v>41</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" t="s">
+        <v>32</v>
+      </c>
+      <c r="C73">
+        <v>1.49</v>
+      </c>
+      <c r="D73" t="s">
+        <v>41</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/StoredScrapedData/Testing_.xlsx
+++ b/StoredScrapedData/Testing_.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>2024-03-21</t>
+  </si>
+  <si>
+    <t>2024-03-22</t>
   </si>
   <si>
     <t>GLOSTAD διθέσιος καναπές</t>
@@ -506,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,19 +540,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>139</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -557,19 +560,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>106.96</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -577,19 +580,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -597,19 +600,19 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>24.99</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -617,19 +620,19 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -637,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>69.98999999999999</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -657,19 +660,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>49.99</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -677,19 +680,19 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>9.99</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -697,19 +700,19 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>5.49</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -717,19 +720,19 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>9.99</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -737,19 +740,19 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>2.49</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -757,19 +760,19 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>0.79</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -777,19 +780,19 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>0.79</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -797,19 +800,19 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15">
         <v>0.79</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -817,19 +820,19 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16">
         <v>8.99</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -837,19 +840,19 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17">
         <v>14.99</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -857,19 +860,19 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18">
         <v>4.49</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -877,19 +880,19 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19">
         <v>12.99</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -897,19 +900,19 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>19.99</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -917,19 +920,19 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21">
         <v>1.49</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -937,19 +940,19 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22">
         <v>1.79</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -957,19 +960,19 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C23">
         <v>3.99</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -977,19 +980,19 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24">
         <v>6.99</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -997,19 +1000,19 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C25">
         <v>1.49</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1017,19 +1020,19 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C26">
         <v>139</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1037,19 +1040,19 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C27">
         <v>106.96</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1057,19 +1060,19 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C28">
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1077,19 +1080,19 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C29">
         <v>24.99</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1097,19 +1100,19 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C30">
         <v>109</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1117,19 +1120,19 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C31">
         <v>69.98999999999999</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1137,19 +1140,19 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C32">
         <v>49.99</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1157,19 +1160,19 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C33">
         <v>9.99</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1177,19 +1180,19 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C34">
         <v>5.49</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1197,19 +1200,19 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C35">
         <v>9.99</v>
       </c>
       <c r="D35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1217,19 +1220,19 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C36">
         <v>2.49</v>
       </c>
       <c r="D36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1237,19 +1240,19 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C37">
         <v>0.79</v>
       </c>
       <c r="D37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1257,19 +1260,19 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C38">
         <v>0.79</v>
       </c>
       <c r="D38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1277,19 +1280,19 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C39">
         <v>0.79</v>
       </c>
       <c r="D39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1297,19 +1300,19 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C40">
         <v>8.99</v>
       </c>
       <c r="D40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1317,19 +1320,19 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C41">
         <v>14.99</v>
       </c>
       <c r="D41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1337,19 +1340,19 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C42">
         <v>4.49</v>
       </c>
       <c r="D42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1357,19 +1360,19 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C43">
         <v>12.99</v>
       </c>
       <c r="D43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1377,19 +1380,19 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C44">
         <v>19.99</v>
       </c>
       <c r="D44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1397,19 +1400,19 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C45">
         <v>1.49</v>
       </c>
       <c r="D45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1417,19 +1420,19 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C46">
         <v>1.79</v>
       </c>
       <c r="D46" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1437,19 +1440,19 @@
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C47">
         <v>3.99</v>
       </c>
       <c r="D47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1457,19 +1460,19 @@
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C48">
         <v>6.99</v>
       </c>
       <c r="D48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1477,19 +1480,19 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C49">
         <v>1.49</v>
       </c>
       <c r="D49" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1497,19 +1500,19 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C50">
         <v>139</v>
       </c>
       <c r="D50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1517,19 +1520,19 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C51">
         <v>106.96</v>
       </c>
       <c r="D51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1537,19 +1540,19 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C52">
         <v>15</v>
       </c>
       <c r="D52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1557,19 +1560,19 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C53">
         <v>24.99</v>
       </c>
       <c r="D53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1577,19 +1580,19 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C54">
         <v>109</v>
       </c>
       <c r="D54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1597,19 +1600,19 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C55">
         <v>69.98999999999999</v>
       </c>
       <c r="D55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1617,19 +1620,19 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C56">
         <v>49.99</v>
       </c>
       <c r="D56" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1637,19 +1640,19 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C57">
         <v>9.99</v>
       </c>
       <c r="D57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1657,19 +1660,19 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C58">
         <v>5.49</v>
       </c>
       <c r="D58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E58" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1677,19 +1680,19 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C59">
         <v>9.99</v>
       </c>
       <c r="D59" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1697,19 +1700,19 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C60">
         <v>2.49</v>
       </c>
       <c r="D60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1717,19 +1720,19 @@
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C61">
         <v>0.79</v>
       </c>
       <c r="D61" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1737,19 +1740,19 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C62">
         <v>0.79</v>
       </c>
       <c r="D62" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E62" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1757,19 +1760,19 @@
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C63">
         <v>0.79</v>
       </c>
       <c r="D63" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1777,19 +1780,19 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C64">
         <v>8.99</v>
       </c>
       <c r="D64" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E64" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1797,19 +1800,19 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C65">
         <v>14.99</v>
       </c>
       <c r="D65" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E65" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1817,19 +1820,19 @@
         <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C66">
         <v>4.49</v>
       </c>
       <c r="D66" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1837,19 +1840,19 @@
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C67">
         <v>12.99</v>
       </c>
       <c r="D67" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1857,19 +1860,19 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C68">
         <v>19.99</v>
       </c>
       <c r="D68" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1877,19 +1880,19 @@
         <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C69">
         <v>1.49</v>
       </c>
       <c r="D69" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1897,19 +1900,19 @@
         <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C70">
         <v>1.79</v>
       </c>
       <c r="D70" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1917,19 +1920,19 @@
         <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C71">
         <v>3.99</v>
       </c>
       <c r="D71" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1937,19 +1940,19 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C72">
         <v>6.99</v>
       </c>
       <c r="D72" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1957,19 +1960,499 @@
         <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C73">
         <v>1.49</v>
       </c>
       <c r="D73" t="s">
+        <v>42</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74">
+        <v>139</v>
+      </c>
+      <c r="D74" t="s">
+        <v>34</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75">
+        <v>106.96</v>
+      </c>
+      <c r="D75" t="s">
+        <v>34</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76">
+        <v>15</v>
+      </c>
+      <c r="D76" t="s">
+        <v>35</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77">
+        <v>24.99</v>
+      </c>
+      <c r="D77" t="s">
+        <v>36</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78">
+        <v>109</v>
+      </c>
+      <c r="D78" t="s">
+        <v>36</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79">
+        <v>69.98999999999999</v>
+      </c>
+      <c r="D79" t="s">
+        <v>36</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80">
+        <v>49.99</v>
+      </c>
+      <c r="D80" t="s">
+        <v>36</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81">
+        <v>9.99</v>
+      </c>
+      <c r="D81" t="s">
+        <v>36</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82">
+        <v>5.49</v>
+      </c>
+      <c r="D82" t="s">
+        <v>36</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83">
+        <v>9.99</v>
+      </c>
+      <c r="D83" t="s">
+        <v>37</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" t="s">
+        <v>20</v>
+      </c>
+      <c r="C84">
+        <v>2.49</v>
+      </c>
+      <c r="D84" t="s">
+        <v>37</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85">
+        <v>0.79</v>
+      </c>
+      <c r="D85" t="s">
+        <v>38</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" t="s">
+        <v>22</v>
+      </c>
+      <c r="C86">
+        <v>0.79</v>
+      </c>
+      <c r="D86" t="s">
+        <v>38</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" t="s">
+        <v>23</v>
+      </c>
+      <c r="C87">
+        <v>0.79</v>
+      </c>
+      <c r="D87" t="s">
+        <v>38</v>
+      </c>
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88">
+        <v>8.99</v>
+      </c>
+      <c r="D88" t="s">
+        <v>39</v>
+      </c>
+      <c r="E88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" t="s">
+        <v>25</v>
+      </c>
+      <c r="C89">
+        <v>14.99</v>
+      </c>
+      <c r="D89" t="s">
+        <v>39</v>
+      </c>
+      <c r="E89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" t="s">
+        <v>26</v>
+      </c>
+      <c r="C90">
+        <v>4.49</v>
+      </c>
+      <c r="D90" t="s">
+        <v>40</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" t="s">
+        <v>27</v>
+      </c>
+      <c r="C91">
+        <v>12.99</v>
+      </c>
+      <c r="D91" t="s">
+        <v>40</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" t="s">
+        <v>28</v>
+      </c>
+      <c r="C92">
+        <v>19.99</v>
+      </c>
+      <c r="D92" t="s">
+        <v>40</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" t="s">
+        <v>29</v>
+      </c>
+      <c r="C93">
+        <v>1.49</v>
+      </c>
+      <c r="D93" t="s">
         <v>41</v>
       </c>
-      <c r="E73" t="s">
-        <v>43</v>
-      </c>
-      <c r="F73" t="s">
-        <v>44</v>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" t="s">
+        <v>30</v>
+      </c>
+      <c r="C94">
+        <v>1.79</v>
+      </c>
+      <c r="D94" t="s">
+        <v>41</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" t="s">
+        <v>31</v>
+      </c>
+      <c r="C95">
+        <v>3.99</v>
+      </c>
+      <c r="D95" t="s">
+        <v>42</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" t="s">
+        <v>32</v>
+      </c>
+      <c r="C96">
+        <v>6.99</v>
+      </c>
+      <c r="D96" t="s">
+        <v>42</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" t="s">
+        <v>33</v>
+      </c>
+      <c r="C97">
+        <v>1.49</v>
+      </c>
+      <c r="D97" t="s">
+        <v>42</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/StoredScrapedData/Testing_.xlsx
+++ b/StoredScrapedData/Testing_.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>2024-03-22</t>
+  </si>
+  <si>
+    <t>2024-03-23</t>
   </si>
   <si>
     <t>GLOSTAD διθέσιος καναπές</t>
@@ -509,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,19 +543,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>139</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -560,19 +563,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>106.96</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -580,19 +583,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -600,19 +603,19 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>24.99</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -620,19 +623,19 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -640,19 +643,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>69.98999999999999</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -660,19 +663,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>49.99</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -680,19 +683,19 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>9.99</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -700,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>5.49</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -720,19 +723,19 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>9.99</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -740,19 +743,19 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>2.49</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -760,19 +763,19 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <v>0.79</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -780,19 +783,19 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14">
         <v>0.79</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -800,19 +803,19 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15">
         <v>0.79</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -820,19 +823,19 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16">
         <v>8.99</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -840,19 +843,19 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17">
         <v>14.99</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -860,19 +863,19 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18">
         <v>4.49</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -880,19 +883,19 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <v>12.99</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -900,19 +903,19 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20">
         <v>19.99</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -920,19 +923,19 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21">
         <v>1.49</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -940,19 +943,19 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C22">
         <v>1.79</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -960,19 +963,19 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C23">
         <v>3.99</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -980,19 +983,19 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24">
         <v>6.99</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1000,19 +1003,19 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25">
         <v>1.49</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1020,19 +1023,19 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26">
         <v>139</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1040,19 +1043,19 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C27">
         <v>106.96</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1060,19 +1063,19 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C28">
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1080,19 +1083,19 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C29">
         <v>24.99</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1100,19 +1103,19 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C30">
         <v>109</v>
       </c>
       <c r="D30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1120,19 +1123,19 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31">
         <v>69.98999999999999</v>
       </c>
       <c r="D31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1140,19 +1143,19 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C32">
         <v>49.99</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1160,19 +1163,19 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C33">
         <v>9.99</v>
       </c>
       <c r="D33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1180,19 +1183,19 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C34">
         <v>5.49</v>
       </c>
       <c r="D34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1200,19 +1203,19 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C35">
         <v>9.99</v>
       </c>
       <c r="D35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1220,19 +1223,19 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C36">
         <v>2.49</v>
       </c>
       <c r="D36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1240,19 +1243,19 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C37">
         <v>0.79</v>
       </c>
       <c r="D37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1260,19 +1263,19 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C38">
         <v>0.79</v>
       </c>
       <c r="D38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1280,19 +1283,19 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C39">
         <v>0.79</v>
       </c>
       <c r="D39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1300,19 +1303,19 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C40">
         <v>8.99</v>
       </c>
       <c r="D40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1320,19 +1323,19 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C41">
         <v>14.99</v>
       </c>
       <c r="D41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1340,19 +1343,19 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C42">
         <v>4.49</v>
       </c>
       <c r="D42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1360,19 +1363,19 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C43">
         <v>12.99</v>
       </c>
       <c r="D43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1380,19 +1383,19 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C44">
         <v>19.99</v>
       </c>
       <c r="D44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1400,19 +1403,19 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C45">
         <v>1.49</v>
       </c>
       <c r="D45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1420,19 +1423,19 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C46">
         <v>1.79</v>
       </c>
       <c r="D46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1440,19 +1443,19 @@
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C47">
         <v>3.99</v>
       </c>
       <c r="D47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1460,19 +1463,19 @@
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C48">
         <v>6.99</v>
       </c>
       <c r="D48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1480,19 +1483,19 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C49">
         <v>1.49</v>
       </c>
       <c r="D49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1500,19 +1503,19 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C50">
         <v>139</v>
       </c>
       <c r="D50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1520,19 +1523,19 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C51">
         <v>106.96</v>
       </c>
       <c r="D51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1540,19 +1543,19 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C52">
         <v>15</v>
       </c>
       <c r="D52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1560,19 +1563,19 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C53">
         <v>24.99</v>
       </c>
       <c r="D53" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1580,19 +1583,19 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C54">
         <v>109</v>
       </c>
       <c r="D54" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1600,19 +1603,19 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C55">
         <v>69.98999999999999</v>
       </c>
       <c r="D55" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1620,19 +1623,19 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C56">
         <v>49.99</v>
       </c>
       <c r="D56" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1640,19 +1643,19 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C57">
         <v>9.99</v>
       </c>
       <c r="D57" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1660,19 +1663,19 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C58">
         <v>5.49</v>
       </c>
       <c r="D58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1680,19 +1683,19 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C59">
         <v>9.99</v>
       </c>
       <c r="D59" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1700,19 +1703,19 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C60">
         <v>2.49</v>
       </c>
       <c r="D60" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1720,19 +1723,19 @@
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C61">
         <v>0.79</v>
       </c>
       <c r="D61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1740,19 +1743,19 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C62">
         <v>0.79</v>
       </c>
       <c r="D62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1760,19 +1763,19 @@
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C63">
         <v>0.79</v>
       </c>
       <c r="D63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1780,19 +1783,19 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C64">
         <v>8.99</v>
       </c>
       <c r="D64" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1800,19 +1803,19 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C65">
         <v>14.99</v>
       </c>
       <c r="D65" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1820,19 +1823,19 @@
         <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C66">
         <v>4.49</v>
       </c>
       <c r="D66" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1840,19 +1843,19 @@
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C67">
         <v>12.99</v>
       </c>
       <c r="D67" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1860,19 +1863,19 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C68">
         <v>19.99</v>
       </c>
       <c r="D68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1880,19 +1883,19 @@
         <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C69">
         <v>1.49</v>
       </c>
       <c r="D69" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1900,19 +1903,19 @@
         <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C70">
         <v>1.79</v>
       </c>
       <c r="D70" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1920,19 +1923,19 @@
         <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C71">
         <v>3.99</v>
       </c>
       <c r="D71" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1940,19 +1943,19 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C72">
         <v>6.99</v>
       </c>
       <c r="D72" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1960,19 +1963,19 @@
         <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C73">
         <v>1.49</v>
       </c>
       <c r="D73" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1980,19 +1983,19 @@
         <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C74">
         <v>139</v>
       </c>
       <c r="D74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2000,19 +2003,19 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C75">
         <v>106.96</v>
       </c>
       <c r="D75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2020,19 +2023,19 @@
         <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C76">
         <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2040,19 +2043,19 @@
         <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C77">
         <v>24.99</v>
       </c>
       <c r="D77" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2060,19 +2063,19 @@
         <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C78">
         <v>109</v>
       </c>
       <c r="D78" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E78" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2080,19 +2083,19 @@
         <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C79">
         <v>69.98999999999999</v>
       </c>
       <c r="D79" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2100,19 +2103,19 @@
         <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C80">
         <v>49.99</v>
       </c>
       <c r="D80" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2120,19 +2123,19 @@
         <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C81">
         <v>9.99</v>
       </c>
       <c r="D81" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2140,19 +2143,19 @@
         <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C82">
         <v>5.49</v>
       </c>
       <c r="D82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2160,19 +2163,19 @@
         <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C83">
         <v>9.99</v>
       </c>
       <c r="D83" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2180,19 +2183,19 @@
         <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C84">
         <v>2.49</v>
       </c>
       <c r="D84" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2200,19 +2203,19 @@
         <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C85">
         <v>0.79</v>
       </c>
       <c r="D85" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2220,19 +2223,19 @@
         <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C86">
         <v>0.79</v>
       </c>
       <c r="D86" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2240,19 +2243,19 @@
         <v>9</v>
       </c>
       <c r="B87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C87">
         <v>0.79</v>
       </c>
       <c r="D87" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E87" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2260,19 +2263,19 @@
         <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C88">
         <v>8.99</v>
       </c>
       <c r="D88" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E88" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2280,19 +2283,19 @@
         <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C89">
         <v>14.99</v>
       </c>
       <c r="D89" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2300,19 +2303,19 @@
         <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C90">
         <v>4.49</v>
       </c>
       <c r="D90" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2320,19 +2323,19 @@
         <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C91">
         <v>12.99</v>
       </c>
       <c r="D91" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2340,19 +2343,19 @@
         <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C92">
         <v>19.99</v>
       </c>
       <c r="D92" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2360,19 +2363,19 @@
         <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C93">
         <v>1.49</v>
       </c>
       <c r="D93" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2380,19 +2383,19 @@
         <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C94">
         <v>1.79</v>
       </c>
       <c r="D94" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2400,19 +2403,19 @@
         <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C95">
         <v>3.99</v>
       </c>
       <c r="D95" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2420,19 +2423,19 @@
         <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C96">
         <v>6.99</v>
       </c>
       <c r="D96" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2440,19 +2443,499 @@
         <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C97">
         <v>1.49</v>
       </c>
       <c r="D97" t="s">
+        <v>43</v>
+      </c>
+      <c r="E97" t="s">
+        <v>45</v>
+      </c>
+      <c r="F97" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>10</v>
+      </c>
+      <c r="B98" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98">
+        <v>139</v>
+      </c>
+      <c r="D98" t="s">
+        <v>35</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99">
+        <v>106.96</v>
+      </c>
+      <c r="D99" t="s">
+        <v>35</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100" t="s">
+        <v>13</v>
+      </c>
+      <c r="C100">
+        <v>15</v>
+      </c>
+      <c r="D100" t="s">
+        <v>36</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101">
+        <v>24.99</v>
+      </c>
+      <c r="D101" t="s">
+        <v>37</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102">
+        <v>109</v>
+      </c>
+      <c r="D102" t="s">
+        <v>37</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103">
+        <v>69.98999999999999</v>
+      </c>
+      <c r="D103" t="s">
+        <v>37</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104">
+        <v>49.99</v>
+      </c>
+      <c r="D104" t="s">
+        <v>37</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105">
+        <v>9.99</v>
+      </c>
+      <c r="D105" t="s">
+        <v>37</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106">
+        <v>5.49</v>
+      </c>
+      <c r="D106" t="s">
+        <v>37</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>10</v>
+      </c>
+      <c r="B107" t="s">
+        <v>20</v>
+      </c>
+      <c r="C107">
+        <v>9.99</v>
+      </c>
+      <c r="D107" t="s">
+        <v>38</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B108" t="s">
+        <v>21</v>
+      </c>
+      <c r="C108">
+        <v>2.49</v>
+      </c>
+      <c r="D108" t="s">
+        <v>38</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B109" t="s">
+        <v>22</v>
+      </c>
+      <c r="C109">
+        <v>0.79</v>
+      </c>
+      <c r="D109" t="s">
+        <v>39</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B110" t="s">
+        <v>23</v>
+      </c>
+      <c r="C110">
+        <v>0.79</v>
+      </c>
+      <c r="D110" t="s">
+        <v>39</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>10</v>
+      </c>
+      <c r="B111" t="s">
+        <v>24</v>
+      </c>
+      <c r="C111">
+        <v>0.79</v>
+      </c>
+      <c r="D111" t="s">
+        <v>39</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>10</v>
+      </c>
+      <c r="B112" t="s">
+        <v>25</v>
+      </c>
+      <c r="C112">
+        <v>8.99</v>
+      </c>
+      <c r="D112" t="s">
+        <v>40</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>10</v>
+      </c>
+      <c r="B113" t="s">
+        <v>26</v>
+      </c>
+      <c r="C113">
+        <v>14.99</v>
+      </c>
+      <c r="D113" t="s">
+        <v>40</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B114" t="s">
+        <v>27</v>
+      </c>
+      <c r="C114">
+        <v>4.49</v>
+      </c>
+      <c r="D114" t="s">
+        <v>41</v>
+      </c>
+      <c r="E114" t="s">
+        <v>45</v>
+      </c>
+      <c r="F114" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>10</v>
+      </c>
+      <c r="B115" t="s">
+        <v>28</v>
+      </c>
+      <c r="C115">
+        <v>12.99</v>
+      </c>
+      <c r="D115" t="s">
+        <v>41</v>
+      </c>
+      <c r="E115" t="s">
+        <v>45</v>
+      </c>
+      <c r="F115" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>10</v>
+      </c>
+      <c r="B116" t="s">
+        <v>29</v>
+      </c>
+      <c r="C116">
+        <v>19.99</v>
+      </c>
+      <c r="D116" t="s">
+        <v>41</v>
+      </c>
+      <c r="E116" t="s">
+        <v>45</v>
+      </c>
+      <c r="F116" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" t="s">
+        <v>30</v>
+      </c>
+      <c r="C117">
+        <v>1.49</v>
+      </c>
+      <c r="D117" t="s">
         <v>42</v>
       </c>
-      <c r="E97" t="s">
-        <v>44</v>
-      </c>
-      <c r="F97" t="s">
-        <v>45</v>
+      <c r="E117" t="s">
+        <v>45</v>
+      </c>
+      <c r="F117" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>10</v>
+      </c>
+      <c r="B118" t="s">
+        <v>31</v>
+      </c>
+      <c r="C118">
+        <v>1.79</v>
+      </c>
+      <c r="D118" t="s">
+        <v>42</v>
+      </c>
+      <c r="E118" t="s">
+        <v>45</v>
+      </c>
+      <c r="F118" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>10</v>
+      </c>
+      <c r="B119" t="s">
+        <v>32</v>
+      </c>
+      <c r="C119">
+        <v>3.99</v>
+      </c>
+      <c r="D119" t="s">
+        <v>43</v>
+      </c>
+      <c r="E119" t="s">
+        <v>45</v>
+      </c>
+      <c r="F119" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>10</v>
+      </c>
+      <c r="B120" t="s">
+        <v>33</v>
+      </c>
+      <c r="C120">
+        <v>6.99</v>
+      </c>
+      <c r="D120" t="s">
+        <v>43</v>
+      </c>
+      <c r="E120" t="s">
+        <v>45</v>
+      </c>
+      <c r="F120" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>10</v>
+      </c>
+      <c r="B121" t="s">
+        <v>34</v>
+      </c>
+      <c r="C121">
+        <v>1.49</v>
+      </c>
+      <c r="D121" t="s">
+        <v>43</v>
+      </c>
+      <c r="E121" t="s">
+        <v>45</v>
+      </c>
+      <c r="F121" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/StoredScrapedData/Testing_.xlsx
+++ b/StoredScrapedData/Testing_.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>2024-03-23</t>
+  </si>
+  <si>
+    <t>2024-03-24</t>
   </si>
   <si>
     <t>GLOSTAD διθέσιος καναπές</t>
@@ -512,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,19 +546,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>139</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -563,19 +566,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>106.96</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -583,19 +586,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -603,19 +606,19 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>24.99</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -623,19 +626,19 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -643,19 +646,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>69.98999999999999</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -663,19 +666,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>49.99</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -683,19 +686,19 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>9.99</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -703,19 +706,19 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>5.49</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -723,19 +726,19 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>9.99</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -743,19 +746,19 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>2.49</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -763,19 +766,19 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <v>0.79</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -783,19 +786,19 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14">
         <v>0.79</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -803,19 +806,19 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15">
         <v>0.79</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -823,19 +826,19 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16">
         <v>8.99</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -843,19 +846,19 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17">
         <v>14.99</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -863,19 +866,19 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>4.49</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -883,19 +886,19 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19">
         <v>12.99</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -903,19 +906,19 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20">
         <v>19.99</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -923,19 +926,19 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C21">
         <v>1.49</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -943,19 +946,19 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C22">
         <v>1.79</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -963,19 +966,19 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23">
         <v>3.99</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -983,19 +986,19 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24">
         <v>6.99</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1003,19 +1006,19 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>1.49</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1023,19 +1026,19 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C26">
         <v>139</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1043,19 +1046,19 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C27">
         <v>106.96</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1063,19 +1066,19 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C28">
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1083,19 +1086,19 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C29">
         <v>24.99</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1103,19 +1106,19 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C30">
         <v>109</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1123,19 +1126,19 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C31">
         <v>69.98999999999999</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1143,19 +1146,19 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C32">
         <v>49.99</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1163,19 +1166,19 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C33">
         <v>9.99</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1183,19 +1186,19 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C34">
         <v>5.49</v>
       </c>
       <c r="D34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1203,19 +1206,19 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C35">
         <v>9.99</v>
       </c>
       <c r="D35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1223,19 +1226,19 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C36">
         <v>2.49</v>
       </c>
       <c r="D36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1243,19 +1246,19 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C37">
         <v>0.79</v>
       </c>
       <c r="D37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1263,19 +1266,19 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C38">
         <v>0.79</v>
       </c>
       <c r="D38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1283,19 +1286,19 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C39">
         <v>0.79</v>
       </c>
       <c r="D39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1303,19 +1306,19 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C40">
         <v>8.99</v>
       </c>
       <c r="D40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1323,19 +1326,19 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C41">
         <v>14.99</v>
       </c>
       <c r="D41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1343,19 +1346,19 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C42">
         <v>4.49</v>
       </c>
       <c r="D42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1363,19 +1366,19 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C43">
         <v>12.99</v>
       </c>
       <c r="D43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1383,19 +1386,19 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C44">
         <v>19.99</v>
       </c>
       <c r="D44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1403,19 +1406,19 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C45">
         <v>1.49</v>
       </c>
       <c r="D45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1423,19 +1426,19 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C46">
         <v>1.79</v>
       </c>
       <c r="D46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1443,19 +1446,19 @@
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C47">
         <v>3.99</v>
       </c>
       <c r="D47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1463,19 +1466,19 @@
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C48">
         <v>6.99</v>
       </c>
       <c r="D48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1483,19 +1486,19 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>1.49</v>
       </c>
       <c r="D49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1503,19 +1506,19 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C50">
         <v>139</v>
       </c>
       <c r="D50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1523,19 +1526,19 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C51">
         <v>106.96</v>
       </c>
       <c r="D51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1543,19 +1546,19 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C52">
         <v>15</v>
       </c>
       <c r="D52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1563,19 +1566,19 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C53">
         <v>24.99</v>
       </c>
       <c r="D53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1583,19 +1586,19 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C54">
         <v>109</v>
       </c>
       <c r="D54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1603,19 +1606,19 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C55">
         <v>69.98999999999999</v>
       </c>
       <c r="D55" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1623,19 +1626,19 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C56">
         <v>49.99</v>
       </c>
       <c r="D56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1643,19 +1646,19 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C57">
         <v>9.99</v>
       </c>
       <c r="D57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1663,19 +1666,19 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C58">
         <v>5.49</v>
       </c>
       <c r="D58" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1683,19 +1686,19 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C59">
         <v>9.99</v>
       </c>
       <c r="D59" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1703,19 +1706,19 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C60">
         <v>2.49</v>
       </c>
       <c r="D60" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1723,19 +1726,19 @@
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C61">
         <v>0.79</v>
       </c>
       <c r="D61" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1743,19 +1746,19 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C62">
         <v>0.79</v>
       </c>
       <c r="D62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1763,19 +1766,19 @@
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C63">
         <v>0.79</v>
       </c>
       <c r="D63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1783,19 +1786,19 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C64">
         <v>8.99</v>
       </c>
       <c r="D64" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1803,19 +1806,19 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C65">
         <v>14.99</v>
       </c>
       <c r="D65" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1823,19 +1826,19 @@
         <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C66">
         <v>4.49</v>
       </c>
       <c r="D66" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1843,19 +1846,19 @@
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C67">
         <v>12.99</v>
       </c>
       <c r="D67" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1863,19 +1866,19 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C68">
         <v>19.99</v>
       </c>
       <c r="D68" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1883,19 +1886,19 @@
         <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C69">
         <v>1.49</v>
       </c>
       <c r="D69" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1903,19 +1906,19 @@
         <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C70">
         <v>1.79</v>
       </c>
       <c r="D70" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1923,19 +1926,19 @@
         <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C71">
         <v>3.99</v>
       </c>
       <c r="D71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1943,19 +1946,19 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C72">
         <v>6.99</v>
       </c>
       <c r="D72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1963,19 +1966,19 @@
         <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>1.49</v>
       </c>
       <c r="D73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1983,19 +1986,19 @@
         <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C74">
         <v>139</v>
       </c>
       <c r="D74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2003,19 +2006,19 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C75">
         <v>106.96</v>
       </c>
       <c r="D75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2023,19 +2026,19 @@
         <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C76">
         <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2043,19 +2046,19 @@
         <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C77">
         <v>24.99</v>
       </c>
       <c r="D77" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2063,19 +2066,19 @@
         <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C78">
         <v>109</v>
       </c>
       <c r="D78" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2083,19 +2086,19 @@
         <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C79">
         <v>69.98999999999999</v>
       </c>
       <c r="D79" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2103,19 +2106,19 @@
         <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C80">
         <v>49.99</v>
       </c>
       <c r="D80" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2123,19 +2126,19 @@
         <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C81">
         <v>9.99</v>
       </c>
       <c r="D81" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2143,19 +2146,19 @@
         <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C82">
         <v>5.49</v>
       </c>
       <c r="D82" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2163,19 +2166,19 @@
         <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C83">
         <v>9.99</v>
       </c>
       <c r="D83" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2183,19 +2186,19 @@
         <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C84">
         <v>2.49</v>
       </c>
       <c r="D84" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2203,19 +2206,19 @@
         <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C85">
         <v>0.79</v>
       </c>
       <c r="D85" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2223,19 +2226,19 @@
         <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C86">
         <v>0.79</v>
       </c>
       <c r="D86" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2243,19 +2246,19 @@
         <v>9</v>
       </c>
       <c r="B87" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C87">
         <v>0.79</v>
       </c>
       <c r="D87" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2263,19 +2266,19 @@
         <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C88">
         <v>8.99</v>
       </c>
       <c r="D88" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2283,19 +2286,19 @@
         <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C89">
         <v>14.99</v>
       </c>
       <c r="D89" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2303,19 +2306,19 @@
         <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C90">
         <v>4.49</v>
       </c>
       <c r="D90" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2323,19 +2326,19 @@
         <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C91">
         <v>12.99</v>
       </c>
       <c r="D91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2343,19 +2346,19 @@
         <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C92">
         <v>19.99</v>
       </c>
       <c r="D92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2363,19 +2366,19 @@
         <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C93">
         <v>1.49</v>
       </c>
       <c r="D93" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2383,19 +2386,19 @@
         <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C94">
         <v>1.79</v>
       </c>
       <c r="D94" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2403,19 +2406,19 @@
         <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C95">
         <v>3.99</v>
       </c>
       <c r="D95" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2423,19 +2426,19 @@
         <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C96">
         <v>6.99</v>
       </c>
       <c r="D96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2443,19 +2446,19 @@
         <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C97">
         <v>1.49</v>
       </c>
       <c r="D97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E97" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2463,19 +2466,19 @@
         <v>10</v>
       </c>
       <c r="B98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C98">
         <v>139</v>
       </c>
       <c r="D98" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2483,19 +2486,19 @@
         <v>10</v>
       </c>
       <c r="B99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C99">
         <v>106.96</v>
       </c>
       <c r="D99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2503,19 +2506,19 @@
         <v>10</v>
       </c>
       <c r="B100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C100">
         <v>15</v>
       </c>
       <c r="D100" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2523,19 +2526,19 @@
         <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C101">
         <v>24.99</v>
       </c>
       <c r="D101" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2543,19 +2546,19 @@
         <v>10</v>
       </c>
       <c r="B102" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C102">
         <v>109</v>
       </c>
       <c r="D102" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2563,19 +2566,19 @@
         <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C103">
         <v>69.98999999999999</v>
       </c>
       <c r="D103" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2583,19 +2586,19 @@
         <v>10</v>
       </c>
       <c r="B104" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C104">
         <v>49.99</v>
       </c>
       <c r="D104" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2603,19 +2606,19 @@
         <v>10</v>
       </c>
       <c r="B105" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C105">
         <v>9.99</v>
       </c>
       <c r="D105" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2623,19 +2626,19 @@
         <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C106">
         <v>5.49</v>
       </c>
       <c r="D106" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2643,19 +2646,19 @@
         <v>10</v>
       </c>
       <c r="B107" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C107">
         <v>9.99</v>
       </c>
       <c r="D107" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2663,19 +2666,19 @@
         <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C108">
         <v>2.49</v>
       </c>
       <c r="D108" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2683,19 +2686,19 @@
         <v>10</v>
       </c>
       <c r="B109" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C109">
         <v>0.79</v>
       </c>
       <c r="D109" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2703,19 +2706,19 @@
         <v>10</v>
       </c>
       <c r="B110" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C110">
         <v>0.79</v>
       </c>
       <c r="D110" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2723,19 +2726,19 @@
         <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C111">
         <v>0.79</v>
       </c>
       <c r="D111" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2743,19 +2746,19 @@
         <v>10</v>
       </c>
       <c r="B112" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C112">
         <v>8.99</v>
       </c>
       <c r="D112" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2763,19 +2766,19 @@
         <v>10</v>
       </c>
       <c r="B113" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C113">
         <v>14.99</v>
       </c>
       <c r="D113" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2783,19 +2786,19 @@
         <v>10</v>
       </c>
       <c r="B114" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C114">
         <v>4.49</v>
       </c>
       <c r="D114" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E114" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2803,19 +2806,19 @@
         <v>10</v>
       </c>
       <c r="B115" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C115">
         <v>12.99</v>
       </c>
       <c r="D115" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E115" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2823,19 +2826,19 @@
         <v>10</v>
       </c>
       <c r="B116" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C116">
         <v>19.99</v>
       </c>
       <c r="D116" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E116" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2843,19 +2846,19 @@
         <v>10</v>
       </c>
       <c r="B117" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C117">
         <v>1.49</v>
       </c>
       <c r="D117" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E117" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2863,19 +2866,19 @@
         <v>10</v>
       </c>
       <c r="B118" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C118">
         <v>1.79</v>
       </c>
       <c r="D118" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E118" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2883,19 +2886,19 @@
         <v>10</v>
       </c>
       <c r="B119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C119">
         <v>3.99</v>
       </c>
       <c r="D119" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E119" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2903,19 +2906,19 @@
         <v>10</v>
       </c>
       <c r="B120" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C120">
         <v>6.99</v>
       </c>
       <c r="D120" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E120" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2923,19 +2926,499 @@
         <v>10</v>
       </c>
       <c r="B121" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C121">
         <v>1.49</v>
       </c>
       <c r="D121" t="s">
+        <v>44</v>
+      </c>
+      <c r="E121" t="s">
+        <v>46</v>
+      </c>
+      <c r="F121" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>11</v>
+      </c>
+      <c r="B122" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122">
+        <v>139</v>
+      </c>
+      <c r="D122" t="s">
+        <v>36</v>
+      </c>
+      <c r="E122" t="s">
+        <v>45</v>
+      </c>
+      <c r="F122" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>11</v>
+      </c>
+      <c r="B123" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123">
+        <v>106.96</v>
+      </c>
+      <c r="D123" t="s">
+        <v>36</v>
+      </c>
+      <c r="E123" t="s">
+        <v>45</v>
+      </c>
+      <c r="F123" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>11</v>
+      </c>
+      <c r="B124" t="s">
+        <v>14</v>
+      </c>
+      <c r="C124">
+        <v>15</v>
+      </c>
+      <c r="D124" t="s">
+        <v>37</v>
+      </c>
+      <c r="E124" t="s">
+        <v>45</v>
+      </c>
+      <c r="F124" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>11</v>
+      </c>
+      <c r="B125" t="s">
+        <v>15</v>
+      </c>
+      <c r="C125">
+        <v>24.99</v>
+      </c>
+      <c r="D125" t="s">
+        <v>38</v>
+      </c>
+      <c r="E125" t="s">
+        <v>45</v>
+      </c>
+      <c r="F125" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
+        <v>11</v>
+      </c>
+      <c r="B126" t="s">
+        <v>16</v>
+      </c>
+      <c r="C126">
+        <v>109</v>
+      </c>
+      <c r="D126" t="s">
+        <v>38</v>
+      </c>
+      <c r="E126" t="s">
+        <v>45</v>
+      </c>
+      <c r="F126" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
+        <v>11</v>
+      </c>
+      <c r="B127" t="s">
+        <v>17</v>
+      </c>
+      <c r="C127">
+        <v>69.98999999999999</v>
+      </c>
+      <c r="D127" t="s">
+        <v>38</v>
+      </c>
+      <c r="E127" t="s">
+        <v>45</v>
+      </c>
+      <c r="F127" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
+        <v>11</v>
+      </c>
+      <c r="B128" t="s">
+        <v>18</v>
+      </c>
+      <c r="C128">
+        <v>49.99</v>
+      </c>
+      <c r="D128" t="s">
+        <v>38</v>
+      </c>
+      <c r="E128" t="s">
+        <v>45</v>
+      </c>
+      <c r="F128" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>11</v>
+      </c>
+      <c r="B129" t="s">
+        <v>19</v>
+      </c>
+      <c r="C129">
+        <v>9.99</v>
+      </c>
+      <c r="D129" t="s">
+        <v>38</v>
+      </c>
+      <c r="E129" t="s">
+        <v>45</v>
+      </c>
+      <c r="F129" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>11</v>
+      </c>
+      <c r="B130" t="s">
+        <v>20</v>
+      </c>
+      <c r="C130">
+        <v>5.49</v>
+      </c>
+      <c r="D130" t="s">
+        <v>38</v>
+      </c>
+      <c r="E130" t="s">
+        <v>45</v>
+      </c>
+      <c r="F130" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>11</v>
+      </c>
+      <c r="B131" t="s">
+        <v>21</v>
+      </c>
+      <c r="C131">
+        <v>9.99</v>
+      </c>
+      <c r="D131" t="s">
+        <v>39</v>
+      </c>
+      <c r="E131" t="s">
+        <v>45</v>
+      </c>
+      <c r="F131" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>11</v>
+      </c>
+      <c r="B132" t="s">
+        <v>22</v>
+      </c>
+      <c r="C132">
+        <v>2.49</v>
+      </c>
+      <c r="D132" t="s">
+        <v>39</v>
+      </c>
+      <c r="E132" t="s">
+        <v>45</v>
+      </c>
+      <c r="F132" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>11</v>
+      </c>
+      <c r="B133" t="s">
+        <v>23</v>
+      </c>
+      <c r="C133">
+        <v>0.79</v>
+      </c>
+      <c r="D133" t="s">
+        <v>40</v>
+      </c>
+      <c r="E133" t="s">
+        <v>45</v>
+      </c>
+      <c r="F133" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>11</v>
+      </c>
+      <c r="B134" t="s">
+        <v>24</v>
+      </c>
+      <c r="C134">
+        <v>0.79</v>
+      </c>
+      <c r="D134" t="s">
+        <v>40</v>
+      </c>
+      <c r="E134" t="s">
+        <v>45</v>
+      </c>
+      <c r="F134" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>11</v>
+      </c>
+      <c r="B135" t="s">
+        <v>25</v>
+      </c>
+      <c r="C135">
+        <v>0.79</v>
+      </c>
+      <c r="D135" t="s">
+        <v>40</v>
+      </c>
+      <c r="E135" t="s">
+        <v>45</v>
+      </c>
+      <c r="F135" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>11</v>
+      </c>
+      <c r="B136" t="s">
+        <v>26</v>
+      </c>
+      <c r="C136">
+        <v>8.99</v>
+      </c>
+      <c r="D136" t="s">
+        <v>41</v>
+      </c>
+      <c r="E136" t="s">
+        <v>45</v>
+      </c>
+      <c r="F136" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="s">
+        <v>11</v>
+      </c>
+      <c r="B137" t="s">
+        <v>27</v>
+      </c>
+      <c r="C137">
+        <v>14.99</v>
+      </c>
+      <c r="D137" t="s">
+        <v>41</v>
+      </c>
+      <c r="E137" t="s">
+        <v>45</v>
+      </c>
+      <c r="F137" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="s">
+        <v>11</v>
+      </c>
+      <c r="B138" t="s">
+        <v>28</v>
+      </c>
+      <c r="C138">
+        <v>4.49</v>
+      </c>
+      <c r="D138" t="s">
+        <v>42</v>
+      </c>
+      <c r="E138" t="s">
+        <v>46</v>
+      </c>
+      <c r="F138" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="s">
+        <v>11</v>
+      </c>
+      <c r="B139" t="s">
+        <v>29</v>
+      </c>
+      <c r="C139">
+        <v>12.99</v>
+      </c>
+      <c r="D139" t="s">
+        <v>42</v>
+      </c>
+      <c r="E139" t="s">
+        <v>46</v>
+      </c>
+      <c r="F139" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" t="s">
+        <v>11</v>
+      </c>
+      <c r="B140" t="s">
+        <v>30</v>
+      </c>
+      <c r="C140">
+        <v>19.99</v>
+      </c>
+      <c r="D140" t="s">
+        <v>42</v>
+      </c>
+      <c r="E140" t="s">
+        <v>46</v>
+      </c>
+      <c r="F140" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
+        <v>11</v>
+      </c>
+      <c r="B141" t="s">
+        <v>31</v>
+      </c>
+      <c r="C141">
+        <v>1.49</v>
+      </c>
+      <c r="D141" t="s">
         <v>43</v>
       </c>
-      <c r="E121" t="s">
-        <v>45</v>
-      </c>
-      <c r="F121" t="s">
-        <v>46</v>
+      <c r="E141" t="s">
+        <v>46</v>
+      </c>
+      <c r="F141" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="s">
+        <v>11</v>
+      </c>
+      <c r="B142" t="s">
+        <v>32</v>
+      </c>
+      <c r="C142">
+        <v>1.79</v>
+      </c>
+      <c r="D142" t="s">
+        <v>43</v>
+      </c>
+      <c r="E142" t="s">
+        <v>46</v>
+      </c>
+      <c r="F142" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="s">
+        <v>11</v>
+      </c>
+      <c r="B143" t="s">
+        <v>33</v>
+      </c>
+      <c r="C143">
+        <v>3.99</v>
+      </c>
+      <c r="D143" t="s">
+        <v>44</v>
+      </c>
+      <c r="E143" t="s">
+        <v>46</v>
+      </c>
+      <c r="F143" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="s">
+        <v>11</v>
+      </c>
+      <c r="B144" t="s">
+        <v>34</v>
+      </c>
+      <c r="C144">
+        <v>6.99</v>
+      </c>
+      <c r="D144" t="s">
+        <v>44</v>
+      </c>
+      <c r="E144" t="s">
+        <v>46</v>
+      </c>
+      <c r="F144" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
+        <v>11</v>
+      </c>
+      <c r="B145" t="s">
+        <v>35</v>
+      </c>
+      <c r="C145">
+        <v>1.49</v>
+      </c>
+      <c r="D145" t="s">
+        <v>44</v>
+      </c>
+      <c r="E145" t="s">
+        <v>46</v>
+      </c>
+      <c r="F145" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/StoredScrapedData/Testing_.xlsx
+++ b/StoredScrapedData/Testing_.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="49">
   <si>
     <t>Date</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>2024-03-24</t>
+  </si>
+  <si>
+    <t>2024-03-25</t>
   </si>
   <si>
     <t>GLOSTAD διθέσιος καναπές</t>
@@ -515,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F145"/>
+  <dimension ref="A1:F169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,19 +549,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>139</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +569,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>106.96</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +589,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +609,19 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>24.99</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,19 +629,19 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -646,19 +649,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>69.98999999999999</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -666,19 +669,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>49.99</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -686,19 +689,19 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>9.99</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -706,19 +709,19 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>5.49</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -726,19 +729,19 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>9.99</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -746,19 +749,19 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>2.49</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -766,19 +769,19 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13">
         <v>0.79</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -786,19 +789,19 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14">
         <v>0.79</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -806,19 +809,19 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15">
         <v>0.79</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -826,19 +829,19 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16">
         <v>8.99</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -846,19 +849,19 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>14.99</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -866,19 +869,19 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18">
         <v>4.49</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -886,19 +889,19 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19">
         <v>12.99</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -906,19 +909,19 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20">
         <v>19.99</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -926,19 +929,19 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21">
         <v>1.49</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -946,19 +949,19 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22">
         <v>1.79</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -966,19 +969,19 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C23">
         <v>3.99</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -986,19 +989,19 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>6.99</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1006,19 +1009,19 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25">
         <v>1.49</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1026,19 +1029,19 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C26">
         <v>139</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1046,19 +1049,19 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C27">
         <v>106.96</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1066,19 +1069,19 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C28">
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1086,19 +1089,19 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C29">
         <v>24.99</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1106,19 +1109,19 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C30">
         <v>109</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1126,19 +1129,19 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C31">
         <v>69.98999999999999</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1146,19 +1149,19 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C32">
         <v>49.99</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1166,19 +1169,19 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C33">
         <v>9.99</v>
       </c>
       <c r="D33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1186,19 +1189,19 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C34">
         <v>5.49</v>
       </c>
       <c r="D34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1206,19 +1209,19 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C35">
         <v>9.99</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1226,19 +1229,19 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C36">
         <v>2.49</v>
       </c>
       <c r="D36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1246,19 +1249,19 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C37">
         <v>0.79</v>
       </c>
       <c r="D37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1266,19 +1269,19 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C38">
         <v>0.79</v>
       </c>
       <c r="D38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1286,19 +1289,19 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C39">
         <v>0.79</v>
       </c>
       <c r="D39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1306,19 +1309,19 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C40">
         <v>8.99</v>
       </c>
       <c r="D40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1326,19 +1329,19 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C41">
         <v>14.99</v>
       </c>
       <c r="D41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1346,19 +1349,19 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C42">
         <v>4.49</v>
       </c>
       <c r="D42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1366,19 +1369,19 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C43">
         <v>12.99</v>
       </c>
       <c r="D43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1386,19 +1389,19 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C44">
         <v>19.99</v>
       </c>
       <c r="D44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1406,19 +1409,19 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C45">
         <v>1.49</v>
       </c>
       <c r="D45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1426,19 +1429,19 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C46">
         <v>1.79</v>
       </c>
       <c r="D46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1446,19 +1449,19 @@
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C47">
         <v>3.99</v>
       </c>
       <c r="D47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1466,19 +1469,19 @@
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>6.99</v>
       </c>
       <c r="D48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1486,19 +1489,19 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C49">
         <v>1.49</v>
       </c>
       <c r="D49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1506,19 +1509,19 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C50">
         <v>139</v>
       </c>
       <c r="D50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1526,19 +1529,19 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C51">
         <v>106.96</v>
       </c>
       <c r="D51" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1546,19 +1549,19 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C52">
         <v>15</v>
       </c>
       <c r="D52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1566,19 +1569,19 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C53">
         <v>24.99</v>
       </c>
       <c r="D53" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1586,19 +1589,19 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C54">
         <v>109</v>
       </c>
       <c r="D54" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1606,19 +1609,19 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C55">
         <v>69.98999999999999</v>
       </c>
       <c r="D55" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1626,19 +1629,19 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C56">
         <v>49.99</v>
       </c>
       <c r="D56" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1646,19 +1649,19 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C57">
         <v>9.99</v>
       </c>
       <c r="D57" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1666,19 +1669,19 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C58">
         <v>5.49</v>
       </c>
       <c r="D58" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1686,19 +1689,19 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C59">
         <v>9.99</v>
       </c>
       <c r="D59" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1706,19 +1709,19 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C60">
         <v>2.49</v>
       </c>
       <c r="D60" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1726,19 +1729,19 @@
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C61">
         <v>0.79</v>
       </c>
       <c r="D61" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1746,19 +1749,19 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C62">
         <v>0.79</v>
       </c>
       <c r="D62" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1766,19 +1769,19 @@
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C63">
         <v>0.79</v>
       </c>
       <c r="D63" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1786,19 +1789,19 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C64">
         <v>8.99</v>
       </c>
       <c r="D64" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1806,19 +1809,19 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C65">
         <v>14.99</v>
       </c>
       <c r="D65" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1826,19 +1829,19 @@
         <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C66">
         <v>4.49</v>
       </c>
       <c r="D66" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1846,19 +1849,19 @@
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C67">
         <v>12.99</v>
       </c>
       <c r="D67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1866,19 +1869,19 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C68">
         <v>19.99</v>
       </c>
       <c r="D68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1886,19 +1889,19 @@
         <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C69">
         <v>1.49</v>
       </c>
       <c r="D69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1906,19 +1909,19 @@
         <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C70">
         <v>1.79</v>
       </c>
       <c r="D70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1926,19 +1929,19 @@
         <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C71">
         <v>3.99</v>
       </c>
       <c r="D71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1946,19 +1949,19 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>6.99</v>
       </c>
       <c r="D72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1966,19 +1969,19 @@
         <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C73">
         <v>1.49</v>
       </c>
       <c r="D73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1986,19 +1989,19 @@
         <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C74">
         <v>139</v>
       </c>
       <c r="D74" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2006,19 +2009,19 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C75">
         <v>106.96</v>
       </c>
       <c r="D75" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2026,19 +2029,19 @@
         <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C76">
         <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2046,19 +2049,19 @@
         <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C77">
         <v>24.99</v>
       </c>
       <c r="D77" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2066,19 +2069,19 @@
         <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C78">
         <v>109</v>
       </c>
       <c r="D78" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2086,19 +2089,19 @@
         <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C79">
         <v>69.98999999999999</v>
       </c>
       <c r="D79" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2106,19 +2109,19 @@
         <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C80">
         <v>49.99</v>
       </c>
       <c r="D80" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2126,19 +2129,19 @@
         <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C81">
         <v>9.99</v>
       </c>
       <c r="D81" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2146,19 +2149,19 @@
         <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C82">
         <v>5.49</v>
       </c>
       <c r="D82" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2166,19 +2169,19 @@
         <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C83">
         <v>9.99</v>
       </c>
       <c r="D83" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2186,19 +2189,19 @@
         <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C84">
         <v>2.49</v>
       </c>
       <c r="D84" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2206,19 +2209,19 @@
         <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C85">
         <v>0.79</v>
       </c>
       <c r="D85" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2226,19 +2229,19 @@
         <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C86">
         <v>0.79</v>
       </c>
       <c r="D86" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2246,19 +2249,19 @@
         <v>9</v>
       </c>
       <c r="B87" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C87">
         <v>0.79</v>
       </c>
       <c r="D87" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2266,19 +2269,19 @@
         <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C88">
         <v>8.99</v>
       </c>
       <c r="D88" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2286,19 +2289,19 @@
         <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C89">
         <v>14.99</v>
       </c>
       <c r="D89" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2306,19 +2309,19 @@
         <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C90">
         <v>4.49</v>
       </c>
       <c r="D90" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2326,19 +2329,19 @@
         <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C91">
         <v>12.99</v>
       </c>
       <c r="D91" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2346,19 +2349,19 @@
         <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C92">
         <v>19.99</v>
       </c>
       <c r="D92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2366,19 +2369,19 @@
         <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C93">
         <v>1.49</v>
       </c>
       <c r="D93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2386,19 +2389,19 @@
         <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C94">
         <v>1.79</v>
       </c>
       <c r="D94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2406,19 +2409,19 @@
         <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C95">
         <v>3.99</v>
       </c>
       <c r="D95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2426,19 +2429,19 @@
         <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C96">
         <v>6.99</v>
       </c>
       <c r="D96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2446,19 +2449,19 @@
         <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C97">
         <v>1.49</v>
       </c>
       <c r="D97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2466,19 +2469,19 @@
         <v>10</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C98">
         <v>139</v>
       </c>
       <c r="D98" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2486,19 +2489,19 @@
         <v>10</v>
       </c>
       <c r="B99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C99">
         <v>106.96</v>
       </c>
       <c r="D99" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2506,19 +2509,19 @@
         <v>10</v>
       </c>
       <c r="B100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C100">
         <v>15</v>
       </c>
       <c r="D100" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2526,19 +2529,19 @@
         <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C101">
         <v>24.99</v>
       </c>
       <c r="D101" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2546,19 +2549,19 @@
         <v>10</v>
       </c>
       <c r="B102" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C102">
         <v>109</v>
       </c>
       <c r="D102" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E102" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2566,19 +2569,19 @@
         <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C103">
         <v>69.98999999999999</v>
       </c>
       <c r="D103" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E103" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2586,19 +2589,19 @@
         <v>10</v>
       </c>
       <c r="B104" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C104">
         <v>49.99</v>
       </c>
       <c r="D104" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2606,19 +2609,19 @@
         <v>10</v>
       </c>
       <c r="B105" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C105">
         <v>9.99</v>
       </c>
       <c r="D105" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E105" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2626,19 +2629,19 @@
         <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C106">
         <v>5.49</v>
       </c>
       <c r="D106" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E106" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2646,19 +2649,19 @@
         <v>10</v>
       </c>
       <c r="B107" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C107">
         <v>9.99</v>
       </c>
       <c r="D107" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E107" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2666,19 +2669,19 @@
         <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C108">
         <v>2.49</v>
       </c>
       <c r="D108" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E108" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2686,19 +2689,19 @@
         <v>10</v>
       </c>
       <c r="B109" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C109">
         <v>0.79</v>
       </c>
       <c r="D109" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E109" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2706,19 +2709,19 @@
         <v>10</v>
       </c>
       <c r="B110" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C110">
         <v>0.79</v>
       </c>
       <c r="D110" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E110" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2726,19 +2729,19 @@
         <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C111">
         <v>0.79</v>
       </c>
       <c r="D111" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E111" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2746,19 +2749,19 @@
         <v>10</v>
       </c>
       <c r="B112" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C112">
         <v>8.99</v>
       </c>
       <c r="D112" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E112" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2766,19 +2769,19 @@
         <v>10</v>
       </c>
       <c r="B113" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C113">
         <v>14.99</v>
       </c>
       <c r="D113" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E113" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2786,19 +2789,19 @@
         <v>10</v>
       </c>
       <c r="B114" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C114">
         <v>4.49</v>
       </c>
       <c r="D114" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2806,19 +2809,19 @@
         <v>10</v>
       </c>
       <c r="B115" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C115">
         <v>12.99</v>
       </c>
       <c r="D115" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2826,19 +2829,19 @@
         <v>10</v>
       </c>
       <c r="B116" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C116">
         <v>19.99</v>
       </c>
       <c r="D116" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2846,19 +2849,19 @@
         <v>10</v>
       </c>
       <c r="B117" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C117">
         <v>1.49</v>
       </c>
       <c r="D117" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2866,19 +2869,19 @@
         <v>10</v>
       </c>
       <c r="B118" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C118">
         <v>1.79</v>
       </c>
       <c r="D118" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2886,19 +2889,19 @@
         <v>10</v>
       </c>
       <c r="B119" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C119">
         <v>3.99</v>
       </c>
       <c r="D119" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2906,19 +2909,19 @@
         <v>10</v>
       </c>
       <c r="B120" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C120">
         <v>6.99</v>
       </c>
       <c r="D120" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2926,19 +2929,19 @@
         <v>10</v>
       </c>
       <c r="B121" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C121">
         <v>1.49</v>
       </c>
       <c r="D121" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E121" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2946,19 +2949,19 @@
         <v>11</v>
       </c>
       <c r="B122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C122">
         <v>139</v>
       </c>
       <c r="D122" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E122" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F122" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2966,19 +2969,19 @@
         <v>11</v>
       </c>
       <c r="B123" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C123">
         <v>106.96</v>
       </c>
       <c r="D123" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E123" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F123" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2986,19 +2989,19 @@
         <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C124">
         <v>15</v>
       </c>
       <c r="D124" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E124" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F124" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3006,19 +3009,19 @@
         <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C125">
         <v>24.99</v>
       </c>
       <c r="D125" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E125" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F125" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3026,19 +3029,19 @@
         <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C126">
         <v>109</v>
       </c>
       <c r="D126" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E126" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F126" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3046,19 +3049,19 @@
         <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C127">
         <v>69.98999999999999</v>
       </c>
       <c r="D127" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E127" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F127" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3066,19 +3069,19 @@
         <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C128">
         <v>49.99</v>
       </c>
       <c r="D128" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E128" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F128" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3086,19 +3089,19 @@
         <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C129">
         <v>9.99</v>
       </c>
       <c r="D129" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E129" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F129" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3106,19 +3109,19 @@
         <v>11</v>
       </c>
       <c r="B130" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C130">
         <v>5.49</v>
       </c>
       <c r="D130" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E130" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F130" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3126,19 +3129,19 @@
         <v>11</v>
       </c>
       <c r="B131" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C131">
         <v>9.99</v>
       </c>
       <c r="D131" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E131" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F131" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3146,19 +3149,19 @@
         <v>11</v>
       </c>
       <c r="B132" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C132">
         <v>2.49</v>
       </c>
       <c r="D132" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E132" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F132" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3166,19 +3169,19 @@
         <v>11</v>
       </c>
       <c r="B133" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C133">
         <v>0.79</v>
       </c>
       <c r="D133" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E133" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F133" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3186,19 +3189,19 @@
         <v>11</v>
       </c>
       <c r="B134" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C134">
         <v>0.79</v>
       </c>
       <c r="D134" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E134" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F134" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3206,19 +3209,19 @@
         <v>11</v>
       </c>
       <c r="B135" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C135">
         <v>0.79</v>
       </c>
       <c r="D135" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E135" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F135" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3226,19 +3229,19 @@
         <v>11</v>
       </c>
       <c r="B136" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C136">
         <v>8.99</v>
       </c>
       <c r="D136" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E136" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F136" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3246,19 +3249,19 @@
         <v>11</v>
       </c>
       <c r="B137" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C137">
         <v>14.99</v>
       </c>
       <c r="D137" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E137" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F137" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3266,19 +3269,19 @@
         <v>11</v>
       </c>
       <c r="B138" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C138">
         <v>4.49</v>
       </c>
       <c r="D138" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E138" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F138" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3286,19 +3289,19 @@
         <v>11</v>
       </c>
       <c r="B139" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C139">
         <v>12.99</v>
       </c>
       <c r="D139" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E139" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F139" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3306,19 +3309,19 @@
         <v>11</v>
       </c>
       <c r="B140" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C140">
         <v>19.99</v>
       </c>
       <c r="D140" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E140" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F140" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3326,19 +3329,19 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C141">
         <v>1.49</v>
       </c>
       <c r="D141" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E141" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F141" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3346,19 +3349,19 @@
         <v>11</v>
       </c>
       <c r="B142" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C142">
         <v>1.79</v>
       </c>
       <c r="D142" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E142" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F142" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3366,19 +3369,19 @@
         <v>11</v>
       </c>
       <c r="B143" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C143">
         <v>3.99</v>
       </c>
       <c r="D143" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E143" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F143" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3386,19 +3389,19 @@
         <v>11</v>
       </c>
       <c r="B144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C144">
         <v>6.99</v>
       </c>
       <c r="D144" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E144" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F144" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3406,19 +3409,499 @@
         <v>11</v>
       </c>
       <c r="B145" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C145">
         <v>1.49</v>
       </c>
       <c r="D145" t="s">
+        <v>45</v>
+      </c>
+      <c r="E145" t="s">
+        <v>47</v>
+      </c>
+      <c r="F145" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146">
+        <v>139</v>
+      </c>
+      <c r="D146" t="s">
+        <v>37</v>
+      </c>
+      <c r="E146" t="s">
+        <v>46</v>
+      </c>
+      <c r="F146" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" t="s">
+        <v>12</v>
+      </c>
+      <c r="B147" t="s">
+        <v>14</v>
+      </c>
+      <c r="C147">
+        <v>106.96</v>
+      </c>
+      <c r="D147" t="s">
+        <v>37</v>
+      </c>
+      <c r="E147" t="s">
+        <v>46</v>
+      </c>
+      <c r="F147" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" t="s">
+        <v>12</v>
+      </c>
+      <c r="B148" t="s">
+        <v>15</v>
+      </c>
+      <c r="C148">
+        <v>15</v>
+      </c>
+      <c r="D148" t="s">
+        <v>38</v>
+      </c>
+      <c r="E148" t="s">
+        <v>46</v>
+      </c>
+      <c r="F148" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" t="s">
+        <v>12</v>
+      </c>
+      <c r="B149" t="s">
+        <v>16</v>
+      </c>
+      <c r="C149">
+        <v>24.99</v>
+      </c>
+      <c r="D149" t="s">
+        <v>39</v>
+      </c>
+      <c r="E149" t="s">
+        <v>46</v>
+      </c>
+      <c r="F149" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" t="s">
+        <v>12</v>
+      </c>
+      <c r="B150" t="s">
+        <v>17</v>
+      </c>
+      <c r="C150">
+        <v>109</v>
+      </c>
+      <c r="D150" t="s">
+        <v>39</v>
+      </c>
+      <c r="E150" t="s">
+        <v>46</v>
+      </c>
+      <c r="F150" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" t="s">
+        <v>12</v>
+      </c>
+      <c r="B151" t="s">
+        <v>18</v>
+      </c>
+      <c r="C151">
+        <v>69.98999999999999</v>
+      </c>
+      <c r="D151" t="s">
+        <v>39</v>
+      </c>
+      <c r="E151" t="s">
+        <v>46</v>
+      </c>
+      <c r="F151" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" t="s">
+        <v>12</v>
+      </c>
+      <c r="B152" t="s">
+        <v>19</v>
+      </c>
+      <c r="C152">
+        <v>49.99</v>
+      </c>
+      <c r="D152" t="s">
+        <v>39</v>
+      </c>
+      <c r="E152" t="s">
+        <v>46</v>
+      </c>
+      <c r="F152" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" t="s">
+        <v>12</v>
+      </c>
+      <c r="B153" t="s">
+        <v>20</v>
+      </c>
+      <c r="C153">
+        <v>9.99</v>
+      </c>
+      <c r="D153" t="s">
+        <v>39</v>
+      </c>
+      <c r="E153" t="s">
+        <v>46</v>
+      </c>
+      <c r="F153" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" t="s">
+        <v>12</v>
+      </c>
+      <c r="B154" t="s">
+        <v>21</v>
+      </c>
+      <c r="C154">
+        <v>5.49</v>
+      </c>
+      <c r="D154" t="s">
+        <v>39</v>
+      </c>
+      <c r="E154" t="s">
+        <v>46</v>
+      </c>
+      <c r="F154" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" t="s">
+        <v>12</v>
+      </c>
+      <c r="B155" t="s">
+        <v>22</v>
+      </c>
+      <c r="C155">
+        <v>9.99</v>
+      </c>
+      <c r="D155" t="s">
+        <v>40</v>
+      </c>
+      <c r="E155" t="s">
+        <v>46</v>
+      </c>
+      <c r="F155" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" t="s">
+        <v>12</v>
+      </c>
+      <c r="B156" t="s">
+        <v>23</v>
+      </c>
+      <c r="C156">
+        <v>2.49</v>
+      </c>
+      <c r="D156" t="s">
+        <v>40</v>
+      </c>
+      <c r="E156" t="s">
+        <v>46</v>
+      </c>
+      <c r="F156" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" t="s">
+        <v>12</v>
+      </c>
+      <c r="B157" t="s">
+        <v>24</v>
+      </c>
+      <c r="C157">
+        <v>0.79</v>
+      </c>
+      <c r="D157" t="s">
+        <v>41</v>
+      </c>
+      <c r="E157" t="s">
+        <v>46</v>
+      </c>
+      <c r="F157" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" t="s">
+        <v>12</v>
+      </c>
+      <c r="B158" t="s">
+        <v>25</v>
+      </c>
+      <c r="C158">
+        <v>0.79</v>
+      </c>
+      <c r="D158" t="s">
+        <v>41</v>
+      </c>
+      <c r="E158" t="s">
+        <v>46</v>
+      </c>
+      <c r="F158" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" t="s">
+        <v>12</v>
+      </c>
+      <c r="B159" t="s">
+        <v>26</v>
+      </c>
+      <c r="C159">
+        <v>0.79</v>
+      </c>
+      <c r="D159" t="s">
+        <v>41</v>
+      </c>
+      <c r="E159" t="s">
+        <v>46</v>
+      </c>
+      <c r="F159" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" t="s">
+        <v>12</v>
+      </c>
+      <c r="B160" t="s">
+        <v>27</v>
+      </c>
+      <c r="C160">
+        <v>8.99</v>
+      </c>
+      <c r="D160" t="s">
+        <v>42</v>
+      </c>
+      <c r="E160" t="s">
+        <v>46</v>
+      </c>
+      <c r="F160" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" t="s">
+        <v>12</v>
+      </c>
+      <c r="B161" t="s">
+        <v>28</v>
+      </c>
+      <c r="C161">
+        <v>14.99</v>
+      </c>
+      <c r="D161" t="s">
+        <v>42</v>
+      </c>
+      <c r="E161" t="s">
+        <v>46</v>
+      </c>
+      <c r="F161" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" t="s">
+        <v>12</v>
+      </c>
+      <c r="B162" t="s">
+        <v>29</v>
+      </c>
+      <c r="C162">
+        <v>4.49</v>
+      </c>
+      <c r="D162" t="s">
+        <v>43</v>
+      </c>
+      <c r="E162" t="s">
+        <v>47</v>
+      </c>
+      <c r="F162" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" t="s">
+        <v>12</v>
+      </c>
+      <c r="B163" t="s">
+        <v>30</v>
+      </c>
+      <c r="C163">
+        <v>12.99</v>
+      </c>
+      <c r="D163" t="s">
+        <v>43</v>
+      </c>
+      <c r="E163" t="s">
+        <v>47</v>
+      </c>
+      <c r="F163" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164" t="s">
+        <v>31</v>
+      </c>
+      <c r="C164">
+        <v>19.99</v>
+      </c>
+      <c r="D164" t="s">
+        <v>43</v>
+      </c>
+      <c r="E164" t="s">
+        <v>47</v>
+      </c>
+      <c r="F164" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" t="s">
+        <v>12</v>
+      </c>
+      <c r="B165" t="s">
+        <v>32</v>
+      </c>
+      <c r="C165">
+        <v>1.49</v>
+      </c>
+      <c r="D165" t="s">
         <v>44</v>
       </c>
-      <c r="E145" t="s">
-        <v>46</v>
-      </c>
-      <c r="F145" t="s">
-        <v>47</v>
+      <c r="E165" t="s">
+        <v>47</v>
+      </c>
+      <c r="F165" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" t="s">
+        <v>12</v>
+      </c>
+      <c r="B166" t="s">
+        <v>33</v>
+      </c>
+      <c r="C166">
+        <v>1.79</v>
+      </c>
+      <c r="D166" t="s">
+        <v>44</v>
+      </c>
+      <c r="E166" t="s">
+        <v>47</v>
+      </c>
+      <c r="F166" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" t="s">
+        <v>12</v>
+      </c>
+      <c r="B167" t="s">
+        <v>34</v>
+      </c>
+      <c r="C167">
+        <v>3.99</v>
+      </c>
+      <c r="D167" t="s">
+        <v>45</v>
+      </c>
+      <c r="E167" t="s">
+        <v>47</v>
+      </c>
+      <c r="F167" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" t="s">
+        <v>12</v>
+      </c>
+      <c r="B168" t="s">
+        <v>35</v>
+      </c>
+      <c r="C168">
+        <v>6.99</v>
+      </c>
+      <c r="D168" t="s">
+        <v>45</v>
+      </c>
+      <c r="E168" t="s">
+        <v>47</v>
+      </c>
+      <c r="F168" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" t="s">
+        <v>12</v>
+      </c>
+      <c r="B169" t="s">
+        <v>36</v>
+      </c>
+      <c r="C169">
+        <v>1.49</v>
+      </c>
+      <c r="D169" t="s">
+        <v>45</v>
+      </c>
+      <c r="E169" t="s">
+        <v>47</v>
+      </c>
+      <c r="F169" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/StoredScrapedData/Testing_.xlsx
+++ b/StoredScrapedData/Testing_.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="50">
   <si>
     <t>Date</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>2024-03-25</t>
+  </si>
+  <si>
+    <t>2024-03-26</t>
   </si>
   <si>
     <t>GLOSTAD διθέσιος καναπές</t>
@@ -518,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F169"/>
+  <dimension ref="A1:F193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -549,19 +552,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>139</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -569,19 +572,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>106.96</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -589,19 +592,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -609,19 +612,19 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>24.99</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -629,19 +632,19 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -649,19 +652,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>69.98999999999999</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -669,19 +672,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>49.99</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -689,19 +692,19 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>9.99</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -709,19 +712,19 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>5.49</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -729,19 +732,19 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>9.99</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -749,19 +752,19 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>2.49</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -769,19 +772,19 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>0.79</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -789,19 +792,19 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <v>0.79</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -809,19 +812,19 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>0.79</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -829,19 +832,19 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>8.99</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -849,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <v>14.99</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -869,19 +872,19 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18">
         <v>4.49</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -889,19 +892,19 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19">
         <v>12.99</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -909,19 +912,19 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20">
         <v>19.99</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -929,19 +932,19 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21">
         <v>1.49</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -949,19 +952,19 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22">
         <v>1.79</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -969,19 +972,19 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>3.99</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -989,19 +992,19 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24">
         <v>6.99</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1009,19 +1012,19 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25">
         <v>1.49</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1029,19 +1032,19 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C26">
         <v>139</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1049,19 +1052,19 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C27">
         <v>106.96</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1069,19 +1072,19 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C28">
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1089,19 +1092,19 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C29">
         <v>24.99</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1109,19 +1112,19 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C30">
         <v>109</v>
       </c>
       <c r="D30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1129,19 +1132,19 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C31">
         <v>69.98999999999999</v>
       </c>
       <c r="D31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1149,19 +1152,19 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C32">
         <v>49.99</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1169,19 +1172,19 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C33">
         <v>9.99</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1189,19 +1192,19 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C34">
         <v>5.49</v>
       </c>
       <c r="D34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1209,19 +1212,19 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C35">
         <v>9.99</v>
       </c>
       <c r="D35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1229,19 +1232,19 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C36">
         <v>2.49</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1249,19 +1252,19 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C37">
         <v>0.79</v>
       </c>
       <c r="D37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1269,19 +1272,19 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C38">
         <v>0.79</v>
       </c>
       <c r="D38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1289,19 +1292,19 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C39">
         <v>0.79</v>
       </c>
       <c r="D39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1309,19 +1312,19 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C40">
         <v>8.99</v>
       </c>
       <c r="D40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1329,19 +1332,19 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C41">
         <v>14.99</v>
       </c>
       <c r="D41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1349,19 +1352,19 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C42">
         <v>4.49</v>
       </c>
       <c r="D42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1369,19 +1372,19 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C43">
         <v>12.99</v>
       </c>
       <c r="D43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1389,19 +1392,19 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C44">
         <v>19.99</v>
       </c>
       <c r="D44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1409,19 +1412,19 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C45">
         <v>1.49</v>
       </c>
       <c r="D45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1429,19 +1432,19 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C46">
         <v>1.79</v>
       </c>
       <c r="D46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1449,19 +1452,19 @@
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>3.99</v>
       </c>
       <c r="D47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1469,19 +1472,19 @@
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C48">
         <v>6.99</v>
       </c>
       <c r="D48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1489,19 +1492,19 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C49">
         <v>1.49</v>
       </c>
       <c r="D49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1509,19 +1512,19 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C50">
         <v>139</v>
       </c>
       <c r="D50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1529,19 +1532,19 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C51">
         <v>106.96</v>
       </c>
       <c r="D51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1549,19 +1552,19 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C52">
         <v>15</v>
       </c>
       <c r="D52" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1569,19 +1572,19 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C53">
         <v>24.99</v>
       </c>
       <c r="D53" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1589,19 +1592,19 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C54">
         <v>109</v>
       </c>
       <c r="D54" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1609,19 +1612,19 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C55">
         <v>69.98999999999999</v>
       </c>
       <c r="D55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1629,19 +1632,19 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C56">
         <v>49.99</v>
       </c>
       <c r="D56" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1649,19 +1652,19 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C57">
         <v>9.99</v>
       </c>
       <c r="D57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1669,19 +1672,19 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C58">
         <v>5.49</v>
       </c>
       <c r="D58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1689,19 +1692,19 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C59">
         <v>9.99</v>
       </c>
       <c r="D59" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1709,19 +1712,19 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C60">
         <v>2.49</v>
       </c>
       <c r="D60" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F60" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1729,19 +1732,19 @@
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C61">
         <v>0.79</v>
       </c>
       <c r="D61" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F61" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1749,19 +1752,19 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C62">
         <v>0.79</v>
       </c>
       <c r="D62" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1769,19 +1772,19 @@
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C63">
         <v>0.79</v>
       </c>
       <c r="D63" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1789,19 +1792,19 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C64">
         <v>8.99</v>
       </c>
       <c r="D64" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1809,19 +1812,19 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C65">
         <v>14.99</v>
       </c>
       <c r="D65" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F65" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1829,19 +1832,19 @@
         <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C66">
         <v>4.49</v>
       </c>
       <c r="D66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1849,19 +1852,19 @@
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C67">
         <v>12.99</v>
       </c>
       <c r="D67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F67" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1869,19 +1872,19 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C68">
         <v>19.99</v>
       </c>
       <c r="D68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1889,19 +1892,19 @@
         <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C69">
         <v>1.49</v>
       </c>
       <c r="D69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1909,19 +1912,19 @@
         <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C70">
         <v>1.79</v>
       </c>
       <c r="D70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F70" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1929,19 +1932,19 @@
         <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>3.99</v>
       </c>
       <c r="D71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F71" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1949,19 +1952,19 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C72">
         <v>6.99</v>
       </c>
       <c r="D72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F72" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1969,19 +1972,19 @@
         <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C73">
         <v>1.49</v>
       </c>
       <c r="D73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F73" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1989,19 +1992,19 @@
         <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C74">
         <v>139</v>
       </c>
       <c r="D74" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2009,19 +2012,19 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C75">
         <v>106.96</v>
       </c>
       <c r="D75" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2029,19 +2032,19 @@
         <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C76">
         <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F76" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2049,19 +2052,19 @@
         <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C77">
         <v>24.99</v>
       </c>
       <c r="D77" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F77" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2069,19 +2072,19 @@
         <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C78">
         <v>109</v>
       </c>
       <c r="D78" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F78" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2089,19 +2092,19 @@
         <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C79">
         <v>69.98999999999999</v>
       </c>
       <c r="D79" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F79" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2109,19 +2112,19 @@
         <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C80">
         <v>49.99</v>
       </c>
       <c r="D80" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F80" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2129,19 +2132,19 @@
         <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C81">
         <v>9.99</v>
       </c>
       <c r="D81" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F81" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2149,19 +2152,19 @@
         <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C82">
         <v>5.49</v>
       </c>
       <c r="D82" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F82" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2169,19 +2172,19 @@
         <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C83">
         <v>9.99</v>
       </c>
       <c r="D83" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F83" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2189,19 +2192,19 @@
         <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C84">
         <v>2.49</v>
       </c>
       <c r="D84" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F84" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2209,19 +2212,19 @@
         <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C85">
         <v>0.79</v>
       </c>
       <c r="D85" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2229,19 +2232,19 @@
         <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C86">
         <v>0.79</v>
       </c>
       <c r="D86" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F86" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2249,19 +2252,19 @@
         <v>9</v>
       </c>
       <c r="B87" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C87">
         <v>0.79</v>
       </c>
       <c r="D87" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2269,19 +2272,19 @@
         <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C88">
         <v>8.99</v>
       </c>
       <c r="D88" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F88" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2289,19 +2292,19 @@
         <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C89">
         <v>14.99</v>
       </c>
       <c r="D89" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F89" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2309,19 +2312,19 @@
         <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C90">
         <v>4.49</v>
       </c>
       <c r="D90" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F90" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2329,19 +2332,19 @@
         <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C91">
         <v>12.99</v>
       </c>
       <c r="D91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F91" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2349,19 +2352,19 @@
         <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C92">
         <v>19.99</v>
       </c>
       <c r="D92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F92" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2369,19 +2372,19 @@
         <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C93">
         <v>1.49</v>
       </c>
       <c r="D93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F93" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2389,19 +2392,19 @@
         <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C94">
         <v>1.79</v>
       </c>
       <c r="D94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F94" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2409,19 +2412,19 @@
         <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C95">
         <v>3.99</v>
       </c>
       <c r="D95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F95" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2429,19 +2432,19 @@
         <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C96">
         <v>6.99</v>
       </c>
       <c r="D96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F96" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2449,19 +2452,19 @@
         <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C97">
         <v>1.49</v>
       </c>
       <c r="D97" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F97" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2469,19 +2472,19 @@
         <v>10</v>
       </c>
       <c r="B98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C98">
         <v>139</v>
       </c>
       <c r="D98" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F98" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2489,19 +2492,19 @@
         <v>10</v>
       </c>
       <c r="B99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C99">
         <v>106.96</v>
       </c>
       <c r="D99" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F99" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2509,19 +2512,19 @@
         <v>10</v>
       </c>
       <c r="B100" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C100">
         <v>15</v>
       </c>
       <c r="D100" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F100" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2529,19 +2532,19 @@
         <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C101">
         <v>24.99</v>
       </c>
       <c r="D101" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F101" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2549,19 +2552,19 @@
         <v>10</v>
       </c>
       <c r="B102" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C102">
         <v>109</v>
       </c>
       <c r="D102" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F102" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2569,19 +2572,19 @@
         <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C103">
         <v>69.98999999999999</v>
       </c>
       <c r="D103" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F103" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2589,19 +2592,19 @@
         <v>10</v>
       </c>
       <c r="B104" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C104">
         <v>49.99</v>
       </c>
       <c r="D104" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F104" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2609,19 +2612,19 @@
         <v>10</v>
       </c>
       <c r="B105" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C105">
         <v>9.99</v>
       </c>
       <c r="D105" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F105" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2629,19 +2632,19 @@
         <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C106">
         <v>5.49</v>
       </c>
       <c r="D106" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F106" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2649,19 +2652,19 @@
         <v>10</v>
       </c>
       <c r="B107" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C107">
         <v>9.99</v>
       </c>
       <c r="D107" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F107" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2669,19 +2672,19 @@
         <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C108">
         <v>2.49</v>
       </c>
       <c r="D108" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F108" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2689,19 +2692,19 @@
         <v>10</v>
       </c>
       <c r="B109" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C109">
         <v>0.79</v>
       </c>
       <c r="D109" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F109" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2709,19 +2712,19 @@
         <v>10</v>
       </c>
       <c r="B110" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C110">
         <v>0.79</v>
       </c>
       <c r="D110" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F110" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2729,19 +2732,19 @@
         <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C111">
         <v>0.79</v>
       </c>
       <c r="D111" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F111" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2749,19 +2752,19 @@
         <v>10</v>
       </c>
       <c r="B112" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C112">
         <v>8.99</v>
       </c>
       <c r="D112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F112" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2769,19 +2772,19 @@
         <v>10</v>
       </c>
       <c r="B113" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C113">
         <v>14.99</v>
       </c>
       <c r="D113" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F113" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2789,19 +2792,19 @@
         <v>10</v>
       </c>
       <c r="B114" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C114">
         <v>4.49</v>
       </c>
       <c r="D114" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F114" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2809,19 +2812,19 @@
         <v>10</v>
       </c>
       <c r="B115" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C115">
         <v>12.99</v>
       </c>
       <c r="D115" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F115" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2829,19 +2832,19 @@
         <v>10</v>
       </c>
       <c r="B116" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C116">
         <v>19.99</v>
       </c>
       <c r="D116" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F116" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2849,19 +2852,19 @@
         <v>10</v>
       </c>
       <c r="B117" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C117">
         <v>1.49</v>
       </c>
       <c r="D117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F117" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2869,19 +2872,19 @@
         <v>10</v>
       </c>
       <c r="B118" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C118">
         <v>1.79</v>
       </c>
       <c r="D118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F118" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2889,19 +2892,19 @@
         <v>10</v>
       </c>
       <c r="B119" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C119">
         <v>3.99</v>
       </c>
       <c r="D119" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F119" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2909,19 +2912,19 @@
         <v>10</v>
       </c>
       <c r="B120" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C120">
         <v>6.99</v>
       </c>
       <c r="D120" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F120" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2929,19 +2932,19 @@
         <v>10</v>
       </c>
       <c r="B121" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C121">
         <v>1.49</v>
       </c>
       <c r="D121" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F121" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2949,19 +2952,19 @@
         <v>11</v>
       </c>
       <c r="B122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C122">
         <v>139</v>
       </c>
       <c r="D122" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F122" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2969,19 +2972,19 @@
         <v>11</v>
       </c>
       <c r="B123" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C123">
         <v>106.96</v>
       </c>
       <c r="D123" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F123" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2989,19 +2992,19 @@
         <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C124">
         <v>15</v>
       </c>
       <c r="D124" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E124" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F124" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3009,19 +3012,19 @@
         <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C125">
         <v>24.99</v>
       </c>
       <c r="D125" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E125" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F125" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3029,19 +3032,19 @@
         <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C126">
         <v>109</v>
       </c>
       <c r="D126" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E126" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F126" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3049,19 +3052,19 @@
         <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C127">
         <v>69.98999999999999</v>
       </c>
       <c r="D127" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E127" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F127" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3069,19 +3072,19 @@
         <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C128">
         <v>49.99</v>
       </c>
       <c r="D128" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E128" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F128" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3089,19 +3092,19 @@
         <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C129">
         <v>9.99</v>
       </c>
       <c r="D129" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E129" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F129" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3109,19 +3112,19 @@
         <v>11</v>
       </c>
       <c r="B130" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C130">
         <v>5.49</v>
       </c>
       <c r="D130" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E130" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F130" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3129,19 +3132,19 @@
         <v>11</v>
       </c>
       <c r="B131" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C131">
         <v>9.99</v>
       </c>
       <c r="D131" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E131" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F131" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3149,19 +3152,19 @@
         <v>11</v>
       </c>
       <c r="B132" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C132">
         <v>2.49</v>
       </c>
       <c r="D132" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E132" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F132" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3169,19 +3172,19 @@
         <v>11</v>
       </c>
       <c r="B133" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C133">
         <v>0.79</v>
       </c>
       <c r="D133" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E133" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F133" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3189,19 +3192,19 @@
         <v>11</v>
       </c>
       <c r="B134" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C134">
         <v>0.79</v>
       </c>
       <c r="D134" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E134" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F134" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3209,19 +3212,19 @@
         <v>11</v>
       </c>
       <c r="B135" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C135">
         <v>0.79</v>
       </c>
       <c r="D135" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E135" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F135" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3229,19 +3232,19 @@
         <v>11</v>
       </c>
       <c r="B136" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C136">
         <v>8.99</v>
       </c>
       <c r="D136" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E136" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F136" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3249,19 +3252,19 @@
         <v>11</v>
       </c>
       <c r="B137" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C137">
         <v>14.99</v>
       </c>
       <c r="D137" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E137" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F137" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3269,19 +3272,19 @@
         <v>11</v>
       </c>
       <c r="B138" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C138">
         <v>4.49</v>
       </c>
       <c r="D138" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E138" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F138" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3289,19 +3292,19 @@
         <v>11</v>
       </c>
       <c r="B139" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C139">
         <v>12.99</v>
       </c>
       <c r="D139" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E139" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F139" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3309,19 +3312,19 @@
         <v>11</v>
       </c>
       <c r="B140" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C140">
         <v>19.99</v>
       </c>
       <c r="D140" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E140" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F140" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3329,19 +3332,19 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C141">
         <v>1.49</v>
       </c>
       <c r="D141" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E141" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F141" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3349,19 +3352,19 @@
         <v>11</v>
       </c>
       <c r="B142" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C142">
         <v>1.79</v>
       </c>
       <c r="D142" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E142" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F142" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3369,19 +3372,19 @@
         <v>11</v>
       </c>
       <c r="B143" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C143">
         <v>3.99</v>
       </c>
       <c r="D143" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E143" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F143" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3389,19 +3392,19 @@
         <v>11</v>
       </c>
       <c r="B144" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C144">
         <v>6.99</v>
       </c>
       <c r="D144" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E144" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F144" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3409,19 +3412,19 @@
         <v>11</v>
       </c>
       <c r="B145" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C145">
         <v>1.49</v>
       </c>
       <c r="D145" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E145" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F145" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3429,19 +3432,19 @@
         <v>12</v>
       </c>
       <c r="B146" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C146">
         <v>139</v>
       </c>
       <c r="D146" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E146" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F146" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3449,19 +3452,19 @@
         <v>12</v>
       </c>
       <c r="B147" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C147">
         <v>106.96</v>
       </c>
       <c r="D147" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E147" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F147" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3469,19 +3472,19 @@
         <v>12</v>
       </c>
       <c r="B148" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C148">
         <v>15</v>
       </c>
       <c r="D148" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E148" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F148" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3489,19 +3492,19 @@
         <v>12</v>
       </c>
       <c r="B149" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C149">
         <v>24.99</v>
       </c>
       <c r="D149" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E149" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F149" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3509,19 +3512,19 @@
         <v>12</v>
       </c>
       <c r="B150" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C150">
         <v>109</v>
       </c>
       <c r="D150" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E150" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F150" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3529,19 +3532,19 @@
         <v>12</v>
       </c>
       <c r="B151" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C151">
         <v>69.98999999999999</v>
       </c>
       <c r="D151" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E151" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F151" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3549,19 +3552,19 @@
         <v>12</v>
       </c>
       <c r="B152" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C152">
         <v>49.99</v>
       </c>
       <c r="D152" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E152" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F152" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3569,19 +3572,19 @@
         <v>12</v>
       </c>
       <c r="B153" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C153">
         <v>9.99</v>
       </c>
       <c r="D153" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E153" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F153" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3589,19 +3592,19 @@
         <v>12</v>
       </c>
       <c r="B154" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C154">
         <v>5.49</v>
       </c>
       <c r="D154" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E154" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F154" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3609,19 +3612,19 @@
         <v>12</v>
       </c>
       <c r="B155" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C155">
         <v>9.99</v>
       </c>
       <c r="D155" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E155" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F155" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3629,19 +3632,19 @@
         <v>12</v>
       </c>
       <c r="B156" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C156">
         <v>2.49</v>
       </c>
       <c r="D156" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E156" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F156" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3649,19 +3652,19 @@
         <v>12</v>
       </c>
       <c r="B157" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C157">
         <v>0.79</v>
       </c>
       <c r="D157" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E157" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F157" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3669,19 +3672,19 @@
         <v>12</v>
       </c>
       <c r="B158" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C158">
         <v>0.79</v>
       </c>
       <c r="D158" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E158" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F158" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3689,19 +3692,19 @@
         <v>12</v>
       </c>
       <c r="B159" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C159">
         <v>0.79</v>
       </c>
       <c r="D159" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E159" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F159" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3709,19 +3712,19 @@
         <v>12</v>
       </c>
       <c r="B160" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C160">
         <v>8.99</v>
       </c>
       <c r="D160" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E160" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F160" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3729,19 +3732,19 @@
         <v>12</v>
       </c>
       <c r="B161" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C161">
         <v>14.99</v>
       </c>
       <c r="D161" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E161" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F161" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3749,19 +3752,19 @@
         <v>12</v>
       </c>
       <c r="B162" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C162">
         <v>4.49</v>
       </c>
       <c r="D162" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E162" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F162" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3769,19 +3772,19 @@
         <v>12</v>
       </c>
       <c r="B163" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C163">
         <v>12.99</v>
       </c>
       <c r="D163" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E163" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F163" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3789,19 +3792,19 @@
         <v>12</v>
       </c>
       <c r="B164" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C164">
         <v>19.99</v>
       </c>
       <c r="D164" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E164" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F164" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3809,19 +3812,19 @@
         <v>12</v>
       </c>
       <c r="B165" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C165">
         <v>1.49</v>
       </c>
       <c r="D165" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E165" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F165" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3829,19 +3832,19 @@
         <v>12</v>
       </c>
       <c r="B166" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C166">
         <v>1.79</v>
       </c>
       <c r="D166" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E166" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F166" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3849,19 +3852,19 @@
         <v>12</v>
       </c>
       <c r="B167" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C167">
         <v>3.99</v>
       </c>
       <c r="D167" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E167" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F167" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3869,19 +3872,19 @@
         <v>12</v>
       </c>
       <c r="B168" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C168">
         <v>6.99</v>
       </c>
       <c r="D168" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E168" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F168" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3889,19 +3892,499 @@
         <v>12</v>
       </c>
       <c r="B169" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C169">
         <v>1.49</v>
       </c>
       <c r="D169" t="s">
+        <v>46</v>
+      </c>
+      <c r="E169" t="s">
+        <v>48</v>
+      </c>
+      <c r="F169" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" t="s">
+        <v>13</v>
+      </c>
+      <c r="B170" t="s">
+        <v>14</v>
+      </c>
+      <c r="C170">
+        <v>139</v>
+      </c>
+      <c r="D170" t="s">
+        <v>38</v>
+      </c>
+      <c r="E170" t="s">
+        <v>47</v>
+      </c>
+      <c r="F170" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" t="s">
+        <v>13</v>
+      </c>
+      <c r="B171" t="s">
+        <v>15</v>
+      </c>
+      <c r="C171">
+        <v>106.96</v>
+      </c>
+      <c r="D171" t="s">
+        <v>38</v>
+      </c>
+      <c r="E171" t="s">
+        <v>47</v>
+      </c>
+      <c r="F171" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" t="s">
+        <v>13</v>
+      </c>
+      <c r="B172" t="s">
+        <v>16</v>
+      </c>
+      <c r="C172">
+        <v>15</v>
+      </c>
+      <c r="D172" t="s">
+        <v>39</v>
+      </c>
+      <c r="E172" t="s">
+        <v>47</v>
+      </c>
+      <c r="F172" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" t="s">
+        <v>13</v>
+      </c>
+      <c r="B173" t="s">
+        <v>17</v>
+      </c>
+      <c r="C173">
+        <v>24.99</v>
+      </c>
+      <c r="D173" t="s">
+        <v>40</v>
+      </c>
+      <c r="E173" t="s">
+        <v>47</v>
+      </c>
+      <c r="F173" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" t="s">
+        <v>13</v>
+      </c>
+      <c r="B174" t="s">
+        <v>18</v>
+      </c>
+      <c r="C174">
+        <v>109</v>
+      </c>
+      <c r="D174" t="s">
+        <v>40</v>
+      </c>
+      <c r="E174" t="s">
+        <v>47</v>
+      </c>
+      <c r="F174" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" t="s">
+        <v>13</v>
+      </c>
+      <c r="B175" t="s">
+        <v>19</v>
+      </c>
+      <c r="C175">
+        <v>69.98999999999999</v>
+      </c>
+      <c r="D175" t="s">
+        <v>40</v>
+      </c>
+      <c r="E175" t="s">
+        <v>47</v>
+      </c>
+      <c r="F175" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" t="s">
+        <v>13</v>
+      </c>
+      <c r="B176" t="s">
+        <v>20</v>
+      </c>
+      <c r="C176">
+        <v>49.99</v>
+      </c>
+      <c r="D176" t="s">
+        <v>40</v>
+      </c>
+      <c r="E176" t="s">
+        <v>47</v>
+      </c>
+      <c r="F176" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" t="s">
+        <v>13</v>
+      </c>
+      <c r="B177" t="s">
+        <v>21</v>
+      </c>
+      <c r="C177">
+        <v>9.99</v>
+      </c>
+      <c r="D177" t="s">
+        <v>40</v>
+      </c>
+      <c r="E177" t="s">
+        <v>47</v>
+      </c>
+      <c r="F177" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" t="s">
+        <v>13</v>
+      </c>
+      <c r="B178" t="s">
+        <v>22</v>
+      </c>
+      <c r="C178">
+        <v>5.49</v>
+      </c>
+      <c r="D178" t="s">
+        <v>40</v>
+      </c>
+      <c r="E178" t="s">
+        <v>47</v>
+      </c>
+      <c r="F178" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" t="s">
+        <v>13</v>
+      </c>
+      <c r="B179" t="s">
+        <v>23</v>
+      </c>
+      <c r="C179">
+        <v>9.99</v>
+      </c>
+      <c r="D179" t="s">
+        <v>41</v>
+      </c>
+      <c r="E179" t="s">
+        <v>47</v>
+      </c>
+      <c r="F179" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" t="s">
+        <v>13</v>
+      </c>
+      <c r="B180" t="s">
+        <v>24</v>
+      </c>
+      <c r="C180">
+        <v>2.49</v>
+      </c>
+      <c r="D180" t="s">
+        <v>41</v>
+      </c>
+      <c r="E180" t="s">
+        <v>47</v>
+      </c>
+      <c r="F180" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" t="s">
+        <v>13</v>
+      </c>
+      <c r="B181" t="s">
+        <v>25</v>
+      </c>
+      <c r="C181">
+        <v>0.79</v>
+      </c>
+      <c r="D181" t="s">
+        <v>42</v>
+      </c>
+      <c r="E181" t="s">
+        <v>47</v>
+      </c>
+      <c r="F181" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" t="s">
+        <v>13</v>
+      </c>
+      <c r="B182" t="s">
+        <v>26</v>
+      </c>
+      <c r="C182">
+        <v>0.79</v>
+      </c>
+      <c r="D182" t="s">
+        <v>42</v>
+      </c>
+      <c r="E182" t="s">
+        <v>47</v>
+      </c>
+      <c r="F182" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" t="s">
+        <v>13</v>
+      </c>
+      <c r="B183" t="s">
+        <v>27</v>
+      </c>
+      <c r="C183">
+        <v>0.79</v>
+      </c>
+      <c r="D183" t="s">
+        <v>42</v>
+      </c>
+      <c r="E183" t="s">
+        <v>47</v>
+      </c>
+      <c r="F183" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" t="s">
+        <v>13</v>
+      </c>
+      <c r="B184" t="s">
+        <v>28</v>
+      </c>
+      <c r="C184">
+        <v>8.99</v>
+      </c>
+      <c r="D184" t="s">
+        <v>43</v>
+      </c>
+      <c r="E184" t="s">
+        <v>47</v>
+      </c>
+      <c r="F184" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" t="s">
+        <v>13</v>
+      </c>
+      <c r="B185" t="s">
+        <v>29</v>
+      </c>
+      <c r="C185">
+        <v>14.99</v>
+      </c>
+      <c r="D185" t="s">
+        <v>43</v>
+      </c>
+      <c r="E185" t="s">
+        <v>47</v>
+      </c>
+      <c r="F185" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" t="s">
+        <v>13</v>
+      </c>
+      <c r="B186" t="s">
+        <v>30</v>
+      </c>
+      <c r="C186">
+        <v>4.49</v>
+      </c>
+      <c r="D186" t="s">
+        <v>44</v>
+      </c>
+      <c r="E186" t="s">
+        <v>48</v>
+      </c>
+      <c r="F186" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" t="s">
+        <v>13</v>
+      </c>
+      <c r="B187" t="s">
+        <v>31</v>
+      </c>
+      <c r="C187">
+        <v>12.99</v>
+      </c>
+      <c r="D187" t="s">
+        <v>44</v>
+      </c>
+      <c r="E187" t="s">
+        <v>48</v>
+      </c>
+      <c r="F187" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" t="s">
+        <v>13</v>
+      </c>
+      <c r="B188" t="s">
+        <v>32</v>
+      </c>
+      <c r="C188">
+        <v>19.99</v>
+      </c>
+      <c r="D188" t="s">
+        <v>44</v>
+      </c>
+      <c r="E188" t="s">
+        <v>48</v>
+      </c>
+      <c r="F188" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" t="s">
+        <v>13</v>
+      </c>
+      <c r="B189" t="s">
+        <v>33</v>
+      </c>
+      <c r="C189">
+        <v>1.49</v>
+      </c>
+      <c r="D189" t="s">
         <v>45</v>
       </c>
-      <c r="E169" t="s">
-        <v>47</v>
-      </c>
-      <c r="F169" t="s">
-        <v>48</v>
+      <c r="E189" t="s">
+        <v>48</v>
+      </c>
+      <c r="F189" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" t="s">
+        <v>13</v>
+      </c>
+      <c r="B190" t="s">
+        <v>34</v>
+      </c>
+      <c r="C190">
+        <v>1.79</v>
+      </c>
+      <c r="D190" t="s">
+        <v>45</v>
+      </c>
+      <c r="E190" t="s">
+        <v>48</v>
+      </c>
+      <c r="F190" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" t="s">
+        <v>13</v>
+      </c>
+      <c r="B191" t="s">
+        <v>35</v>
+      </c>
+      <c r="C191">
+        <v>3.99</v>
+      </c>
+      <c r="D191" t="s">
+        <v>46</v>
+      </c>
+      <c r="E191" t="s">
+        <v>48</v>
+      </c>
+      <c r="F191" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" t="s">
+        <v>13</v>
+      </c>
+      <c r="B192" t="s">
+        <v>36</v>
+      </c>
+      <c r="C192">
+        <v>6.99</v>
+      </c>
+      <c r="D192" t="s">
+        <v>46</v>
+      </c>
+      <c r="E192" t="s">
+        <v>48</v>
+      </c>
+      <c r="F192" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" t="s">
+        <v>13</v>
+      </c>
+      <c r="B193" t="s">
+        <v>37</v>
+      </c>
+      <c r="C193">
+        <v>1.49</v>
+      </c>
+      <c r="D193" t="s">
+        <v>46</v>
+      </c>
+      <c r="E193" t="s">
+        <v>48</v>
+      </c>
+      <c r="F193" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/StoredScrapedData/Testing_.xlsx
+++ b/StoredScrapedData/Testing_.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="51">
   <si>
     <t>Date</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>2024-03-26</t>
+  </si>
+  <si>
+    <t>2024-03-27</t>
   </si>
   <si>
     <t>GLOSTAD διθέσιος καναπές</t>
@@ -521,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F193"/>
+  <dimension ref="A1:F217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,19 +555,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>139</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -572,19 +575,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>106.96</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -592,19 +595,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -612,19 +615,19 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>24.99</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -632,19 +635,19 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -652,19 +655,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>69.98999999999999</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -672,19 +675,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>49.99</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -692,19 +695,19 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>9.99</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -712,19 +715,19 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>5.49</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -732,19 +735,19 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>9.99</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -752,19 +755,19 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>2.49</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -772,19 +775,19 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>0.79</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -792,19 +795,19 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>0.79</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -812,19 +815,19 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>0.79</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -832,19 +835,19 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>8.99</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -852,19 +855,19 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17">
         <v>14.99</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -872,19 +875,19 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18">
         <v>4.49</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -892,19 +895,19 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19">
         <v>12.99</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -912,19 +915,19 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20">
         <v>19.99</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -932,19 +935,19 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21">
         <v>1.49</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -952,19 +955,19 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>1.79</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -972,19 +975,19 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23">
         <v>3.99</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -992,19 +995,19 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24">
         <v>6.99</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1012,19 +1015,19 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25">
         <v>1.49</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1032,19 +1035,19 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C26">
         <v>139</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1052,19 +1055,19 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C27">
         <v>106.96</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1072,19 +1075,19 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C28">
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1092,19 +1095,19 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C29">
         <v>24.99</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1112,19 +1115,19 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C30">
         <v>109</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1132,19 +1135,19 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C31">
         <v>69.98999999999999</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1152,19 +1155,19 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C32">
         <v>49.99</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1172,19 +1175,19 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C33">
         <v>9.99</v>
       </c>
       <c r="D33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1192,19 +1195,19 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C34">
         <v>5.49</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1212,19 +1215,19 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C35">
         <v>9.99</v>
       </c>
       <c r="D35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1232,19 +1235,19 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C36">
         <v>2.49</v>
       </c>
       <c r="D36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1252,19 +1255,19 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C37">
         <v>0.79</v>
       </c>
       <c r="D37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1272,19 +1275,19 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C38">
         <v>0.79</v>
       </c>
       <c r="D38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1292,19 +1295,19 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C39">
         <v>0.79</v>
       </c>
       <c r="D39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1312,19 +1315,19 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C40">
         <v>8.99</v>
       </c>
       <c r="D40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1332,19 +1335,19 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C41">
         <v>14.99</v>
       </c>
       <c r="D41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1352,19 +1355,19 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C42">
         <v>4.49</v>
       </c>
       <c r="D42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1372,19 +1375,19 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C43">
         <v>12.99</v>
       </c>
       <c r="D43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1392,19 +1395,19 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C44">
         <v>19.99</v>
       </c>
       <c r="D44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1412,19 +1415,19 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C45">
         <v>1.49</v>
       </c>
       <c r="D45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1432,19 +1435,19 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>1.79</v>
       </c>
       <c r="D46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1452,19 +1455,19 @@
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C47">
         <v>3.99</v>
       </c>
       <c r="D47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1472,19 +1475,19 @@
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C48">
         <v>6.99</v>
       </c>
       <c r="D48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1492,19 +1495,19 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C49">
         <v>1.49</v>
       </c>
       <c r="D49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1512,19 +1515,19 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C50">
         <v>139</v>
       </c>
       <c r="D50" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1532,19 +1535,19 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C51">
         <v>106.96</v>
       </c>
       <c r="D51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1552,19 +1555,19 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C52">
         <v>15</v>
       </c>
       <c r="D52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1572,19 +1575,19 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C53">
         <v>24.99</v>
       </c>
       <c r="D53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1592,19 +1595,19 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C54">
         <v>109</v>
       </c>
       <c r="D54" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1612,19 +1615,19 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C55">
         <v>69.98999999999999</v>
       </c>
       <c r="D55" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1632,19 +1635,19 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C56">
         <v>49.99</v>
       </c>
       <c r="D56" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1652,19 +1655,19 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C57">
         <v>9.99</v>
       </c>
       <c r="D57" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1672,19 +1675,19 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C58">
         <v>5.49</v>
       </c>
       <c r="D58" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F58" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1692,19 +1695,19 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C59">
         <v>9.99</v>
       </c>
       <c r="D59" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1712,19 +1715,19 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C60">
         <v>2.49</v>
       </c>
       <c r="D60" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F60" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1732,19 +1735,19 @@
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C61">
         <v>0.79</v>
       </c>
       <c r="D61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1752,19 +1755,19 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C62">
         <v>0.79</v>
       </c>
       <c r="D62" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F62" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1772,19 +1775,19 @@
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C63">
         <v>0.79</v>
       </c>
       <c r="D63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F63" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1792,19 +1795,19 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C64">
         <v>8.99</v>
       </c>
       <c r="D64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F64" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1812,19 +1815,19 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C65">
         <v>14.99</v>
       </c>
       <c r="D65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F65" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1832,19 +1835,19 @@
         <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C66">
         <v>4.49</v>
       </c>
       <c r="D66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F66" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1852,19 +1855,19 @@
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C67">
         <v>12.99</v>
       </c>
       <c r="D67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E67" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F67" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1872,19 +1875,19 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C68">
         <v>19.99</v>
       </c>
       <c r="D68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F68" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1892,19 +1895,19 @@
         <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C69">
         <v>1.49</v>
       </c>
       <c r="D69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F69" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1912,19 +1915,19 @@
         <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>1.79</v>
       </c>
       <c r="D70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E70" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F70" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1932,19 +1935,19 @@
         <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C71">
         <v>3.99</v>
       </c>
       <c r="D71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E71" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F71" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1952,19 +1955,19 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C72">
         <v>6.99</v>
       </c>
       <c r="D72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E72" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F72" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1972,19 +1975,19 @@
         <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C73">
         <v>1.49</v>
       </c>
       <c r="D73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E73" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F73" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1992,19 +1995,19 @@
         <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C74">
         <v>139</v>
       </c>
       <c r="D74" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F74" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2012,19 +2015,19 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C75">
         <v>106.96</v>
       </c>
       <c r="D75" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F75" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2032,19 +2035,19 @@
         <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C76">
         <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F76" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2052,19 +2055,19 @@
         <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C77">
         <v>24.99</v>
       </c>
       <c r="D77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F77" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2072,19 +2075,19 @@
         <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C78">
         <v>109</v>
       </c>
       <c r="D78" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F78" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2092,19 +2095,19 @@
         <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C79">
         <v>69.98999999999999</v>
       </c>
       <c r="D79" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F79" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2112,19 +2115,19 @@
         <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C80">
         <v>49.99</v>
       </c>
       <c r="D80" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F80" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2132,19 +2135,19 @@
         <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C81">
         <v>9.99</v>
       </c>
       <c r="D81" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F81" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2152,19 +2155,19 @@
         <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C82">
         <v>5.49</v>
       </c>
       <c r="D82" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F82" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2172,19 +2175,19 @@
         <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C83">
         <v>9.99</v>
       </c>
       <c r="D83" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F83" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2192,19 +2195,19 @@
         <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C84">
         <v>2.49</v>
       </c>
       <c r="D84" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F84" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2212,19 +2215,19 @@
         <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C85">
         <v>0.79</v>
       </c>
       <c r="D85" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F85" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2232,19 +2235,19 @@
         <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C86">
         <v>0.79</v>
       </c>
       <c r="D86" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F86" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2252,19 +2255,19 @@
         <v>9</v>
       </c>
       <c r="B87" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C87">
         <v>0.79</v>
       </c>
       <c r="D87" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F87" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2272,19 +2275,19 @@
         <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C88">
         <v>8.99</v>
       </c>
       <c r="D88" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F88" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2292,19 +2295,19 @@
         <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C89">
         <v>14.99</v>
       </c>
       <c r="D89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F89" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2312,19 +2315,19 @@
         <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C90">
         <v>4.49</v>
       </c>
       <c r="D90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E90" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F90" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2332,19 +2335,19 @@
         <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C91">
         <v>12.99</v>
       </c>
       <c r="D91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E91" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F91" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2352,19 +2355,19 @@
         <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C92">
         <v>19.99</v>
       </c>
       <c r="D92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E92" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F92" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2372,19 +2375,19 @@
         <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C93">
         <v>1.49</v>
       </c>
       <c r="D93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E93" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F93" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2392,19 +2395,19 @@
         <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C94">
         <v>1.79</v>
       </c>
       <c r="D94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E94" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F94" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2412,19 +2415,19 @@
         <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C95">
         <v>3.99</v>
       </c>
       <c r="D95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E95" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F95" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2432,19 +2435,19 @@
         <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C96">
         <v>6.99</v>
       </c>
       <c r="D96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E96" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F96" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2452,19 +2455,19 @@
         <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C97">
         <v>1.49</v>
       </c>
       <c r="D97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E97" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F97" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2472,19 +2475,19 @@
         <v>10</v>
       </c>
       <c r="B98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C98">
         <v>139</v>
       </c>
       <c r="D98" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F98" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2492,19 +2495,19 @@
         <v>10</v>
       </c>
       <c r="B99" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C99">
         <v>106.96</v>
       </c>
       <c r="D99" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F99" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2512,19 +2515,19 @@
         <v>10</v>
       </c>
       <c r="B100" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C100">
         <v>15</v>
       </c>
       <c r="D100" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F100" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2532,19 +2535,19 @@
         <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C101">
         <v>24.99</v>
       </c>
       <c r="D101" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F101" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2552,19 +2555,19 @@
         <v>10</v>
       </c>
       <c r="B102" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C102">
         <v>109</v>
       </c>
       <c r="D102" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F102" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2572,19 +2575,19 @@
         <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C103">
         <v>69.98999999999999</v>
       </c>
       <c r="D103" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F103" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2592,19 +2595,19 @@
         <v>10</v>
       </c>
       <c r="B104" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C104">
         <v>49.99</v>
       </c>
       <c r="D104" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F104" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2612,19 +2615,19 @@
         <v>10</v>
       </c>
       <c r="B105" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C105">
         <v>9.99</v>
       </c>
       <c r="D105" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F105" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2632,19 +2635,19 @@
         <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C106">
         <v>5.49</v>
       </c>
       <c r="D106" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F106" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2652,19 +2655,19 @@
         <v>10</v>
       </c>
       <c r="B107" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C107">
         <v>9.99</v>
       </c>
       <c r="D107" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F107" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2672,19 +2675,19 @@
         <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C108">
         <v>2.49</v>
       </c>
       <c r="D108" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F108" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2692,19 +2695,19 @@
         <v>10</v>
       </c>
       <c r="B109" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C109">
         <v>0.79</v>
       </c>
       <c r="D109" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F109" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2712,19 +2715,19 @@
         <v>10</v>
       </c>
       <c r="B110" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C110">
         <v>0.79</v>
       </c>
       <c r="D110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F110" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2732,19 +2735,19 @@
         <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C111">
         <v>0.79</v>
       </c>
       <c r="D111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F111" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2752,19 +2755,19 @@
         <v>10</v>
       </c>
       <c r="B112" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C112">
         <v>8.99</v>
       </c>
       <c r="D112" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F112" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2772,19 +2775,19 @@
         <v>10</v>
       </c>
       <c r="B113" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C113">
         <v>14.99</v>
       </c>
       <c r="D113" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F113" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2792,19 +2795,19 @@
         <v>10</v>
       </c>
       <c r="B114" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C114">
         <v>4.49</v>
       </c>
       <c r="D114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E114" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F114" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2812,19 +2815,19 @@
         <v>10</v>
       </c>
       <c r="B115" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C115">
         <v>12.99</v>
       </c>
       <c r="D115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E115" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F115" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2832,19 +2835,19 @@
         <v>10</v>
       </c>
       <c r="B116" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C116">
         <v>19.99</v>
       </c>
       <c r="D116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E116" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F116" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2852,19 +2855,19 @@
         <v>10</v>
       </c>
       <c r="B117" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C117">
         <v>1.49</v>
       </c>
       <c r="D117" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E117" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F117" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2872,19 +2875,19 @@
         <v>10</v>
       </c>
       <c r="B118" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C118">
         <v>1.79</v>
       </c>
       <c r="D118" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E118" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F118" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2892,19 +2895,19 @@
         <v>10</v>
       </c>
       <c r="B119" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C119">
         <v>3.99</v>
       </c>
       <c r="D119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E119" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F119" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2912,19 +2915,19 @@
         <v>10</v>
       </c>
       <c r="B120" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C120">
         <v>6.99</v>
       </c>
       <c r="D120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E120" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F120" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2932,19 +2935,19 @@
         <v>10</v>
       </c>
       <c r="B121" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C121">
         <v>1.49</v>
       </c>
       <c r="D121" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E121" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F121" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2952,19 +2955,19 @@
         <v>11</v>
       </c>
       <c r="B122" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C122">
         <v>139</v>
       </c>
       <c r="D122" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E122" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F122" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2972,19 +2975,19 @@
         <v>11</v>
       </c>
       <c r="B123" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C123">
         <v>106.96</v>
       </c>
       <c r="D123" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E123" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F123" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2992,19 +2995,19 @@
         <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C124">
         <v>15</v>
       </c>
       <c r="D124" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E124" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F124" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3012,19 +3015,19 @@
         <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C125">
         <v>24.99</v>
       </c>
       <c r="D125" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E125" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F125" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3032,19 +3035,19 @@
         <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C126">
         <v>109</v>
       </c>
       <c r="D126" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E126" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F126" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3052,19 +3055,19 @@
         <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C127">
         <v>69.98999999999999</v>
       </c>
       <c r="D127" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E127" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F127" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3072,19 +3075,19 @@
         <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C128">
         <v>49.99</v>
       </c>
       <c r="D128" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E128" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F128" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3092,19 +3095,19 @@
         <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C129">
         <v>9.99</v>
       </c>
       <c r="D129" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E129" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F129" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3112,19 +3115,19 @@
         <v>11</v>
       </c>
       <c r="B130" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C130">
         <v>5.49</v>
       </c>
       <c r="D130" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E130" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F130" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3132,19 +3135,19 @@
         <v>11</v>
       </c>
       <c r="B131" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C131">
         <v>9.99</v>
       </c>
       <c r="D131" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E131" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F131" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3152,19 +3155,19 @@
         <v>11</v>
       </c>
       <c r="B132" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C132">
         <v>2.49</v>
       </c>
       <c r="D132" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E132" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F132" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3172,19 +3175,19 @@
         <v>11</v>
       </c>
       <c r="B133" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C133">
         <v>0.79</v>
       </c>
       <c r="D133" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E133" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F133" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3192,19 +3195,19 @@
         <v>11</v>
       </c>
       <c r="B134" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C134">
         <v>0.79</v>
       </c>
       <c r="D134" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E134" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F134" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3212,19 +3215,19 @@
         <v>11</v>
       </c>
       <c r="B135" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C135">
         <v>0.79</v>
       </c>
       <c r="D135" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E135" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F135" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3232,19 +3235,19 @@
         <v>11</v>
       </c>
       <c r="B136" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C136">
         <v>8.99</v>
       </c>
       <c r="D136" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E136" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F136" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3252,19 +3255,19 @@
         <v>11</v>
       </c>
       <c r="B137" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C137">
         <v>14.99</v>
       </c>
       <c r="D137" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E137" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F137" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3272,19 +3275,19 @@
         <v>11</v>
       </c>
       <c r="B138" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C138">
         <v>4.49</v>
       </c>
       <c r="D138" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E138" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F138" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3292,19 +3295,19 @@
         <v>11</v>
       </c>
       <c r="B139" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C139">
         <v>12.99</v>
       </c>
       <c r="D139" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E139" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F139" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3312,19 +3315,19 @@
         <v>11</v>
       </c>
       <c r="B140" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C140">
         <v>19.99</v>
       </c>
       <c r="D140" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E140" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F140" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3332,19 +3335,19 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C141">
         <v>1.49</v>
       </c>
       <c r="D141" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E141" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F141" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3352,19 +3355,19 @@
         <v>11</v>
       </c>
       <c r="B142" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C142">
         <v>1.79</v>
       </c>
       <c r="D142" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E142" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F142" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3372,19 +3375,19 @@
         <v>11</v>
       </c>
       <c r="B143" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C143">
         <v>3.99</v>
       </c>
       <c r="D143" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E143" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F143" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3392,19 +3395,19 @@
         <v>11</v>
       </c>
       <c r="B144" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C144">
         <v>6.99</v>
       </c>
       <c r="D144" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E144" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F144" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3412,19 +3415,19 @@
         <v>11</v>
       </c>
       <c r="B145" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C145">
         <v>1.49</v>
       </c>
       <c r="D145" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E145" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F145" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3432,19 +3435,19 @@
         <v>12</v>
       </c>
       <c r="B146" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C146">
         <v>139</v>
       </c>
       <c r="D146" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E146" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F146" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3452,19 +3455,19 @@
         <v>12</v>
       </c>
       <c r="B147" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C147">
         <v>106.96</v>
       </c>
       <c r="D147" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E147" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F147" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3472,19 +3475,19 @@
         <v>12</v>
       </c>
       <c r="B148" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C148">
         <v>15</v>
       </c>
       <c r="D148" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E148" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F148" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3492,19 +3495,19 @@
         <v>12</v>
       </c>
       <c r="B149" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C149">
         <v>24.99</v>
       </c>
       <c r="D149" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E149" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F149" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3512,19 +3515,19 @@
         <v>12</v>
       </c>
       <c r="B150" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C150">
         <v>109</v>
       </c>
       <c r="D150" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E150" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F150" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3532,19 +3535,19 @@
         <v>12</v>
       </c>
       <c r="B151" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C151">
         <v>69.98999999999999</v>
       </c>
       <c r="D151" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E151" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F151" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3552,19 +3555,19 @@
         <v>12</v>
       </c>
       <c r="B152" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C152">
         <v>49.99</v>
       </c>
       <c r="D152" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E152" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F152" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3572,19 +3575,19 @@
         <v>12</v>
       </c>
       <c r="B153" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C153">
         <v>9.99</v>
       </c>
       <c r="D153" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E153" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F153" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3592,19 +3595,19 @@
         <v>12</v>
       </c>
       <c r="B154" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C154">
         <v>5.49</v>
       </c>
       <c r="D154" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E154" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F154" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3612,19 +3615,19 @@
         <v>12</v>
       </c>
       <c r="B155" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C155">
         <v>9.99</v>
       </c>
       <c r="D155" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E155" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F155" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3632,19 +3635,19 @@
         <v>12</v>
       </c>
       <c r="B156" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C156">
         <v>2.49</v>
       </c>
       <c r="D156" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E156" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F156" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3652,19 +3655,19 @@
         <v>12</v>
       </c>
       <c r="B157" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C157">
         <v>0.79</v>
       </c>
       <c r="D157" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E157" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F157" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3672,19 +3675,19 @@
         <v>12</v>
       </c>
       <c r="B158" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C158">
         <v>0.79</v>
       </c>
       <c r="D158" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E158" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F158" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3692,19 +3695,19 @@
         <v>12</v>
       </c>
       <c r="B159" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C159">
         <v>0.79</v>
       </c>
       <c r="D159" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E159" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F159" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3712,19 +3715,19 @@
         <v>12</v>
       </c>
       <c r="B160" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C160">
         <v>8.99</v>
       </c>
       <c r="D160" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E160" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F160" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3732,19 +3735,19 @@
         <v>12</v>
       </c>
       <c r="B161" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C161">
         <v>14.99</v>
       </c>
       <c r="D161" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E161" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F161" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3752,19 +3755,19 @@
         <v>12</v>
       </c>
       <c r="B162" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C162">
         <v>4.49</v>
       </c>
       <c r="D162" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E162" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F162" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3772,19 +3775,19 @@
         <v>12</v>
       </c>
       <c r="B163" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C163">
         <v>12.99</v>
       </c>
       <c r="D163" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E163" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F163" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3792,19 +3795,19 @@
         <v>12</v>
       </c>
       <c r="B164" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C164">
         <v>19.99</v>
       </c>
       <c r="D164" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E164" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F164" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3812,19 +3815,19 @@
         <v>12</v>
       </c>
       <c r="B165" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C165">
         <v>1.49</v>
       </c>
       <c r="D165" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E165" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F165" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3832,19 +3835,19 @@
         <v>12</v>
       </c>
       <c r="B166" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C166">
         <v>1.79</v>
       </c>
       <c r="D166" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E166" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F166" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3852,19 +3855,19 @@
         <v>12</v>
       </c>
       <c r="B167" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C167">
         <v>3.99</v>
       </c>
       <c r="D167" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E167" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F167" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3872,19 +3875,19 @@
         <v>12</v>
       </c>
       <c r="B168" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C168">
         <v>6.99</v>
       </c>
       <c r="D168" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E168" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F168" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3892,19 +3895,19 @@
         <v>12</v>
       </c>
       <c r="B169" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C169">
         <v>1.49</v>
       </c>
       <c r="D169" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E169" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F169" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3912,19 +3915,19 @@
         <v>13</v>
       </c>
       <c r="B170" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C170">
         <v>139</v>
       </c>
       <c r="D170" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E170" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F170" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3932,19 +3935,19 @@
         <v>13</v>
       </c>
       <c r="B171" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C171">
         <v>106.96</v>
       </c>
       <c r="D171" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E171" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F171" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3952,19 +3955,19 @@
         <v>13</v>
       </c>
       <c r="B172" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C172">
         <v>15</v>
       </c>
       <c r="D172" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E172" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F172" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3972,19 +3975,19 @@
         <v>13</v>
       </c>
       <c r="B173" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C173">
         <v>24.99</v>
       </c>
       <c r="D173" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E173" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F173" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3992,19 +3995,19 @@
         <v>13</v>
       </c>
       <c r="B174" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C174">
         <v>109</v>
       </c>
       <c r="D174" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E174" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F174" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4012,19 +4015,19 @@
         <v>13</v>
       </c>
       <c r="B175" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C175">
         <v>69.98999999999999</v>
       </c>
       <c r="D175" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E175" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F175" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4032,19 +4035,19 @@
         <v>13</v>
       </c>
       <c r="B176" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C176">
         <v>49.99</v>
       </c>
       <c r="D176" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E176" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F176" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4052,19 +4055,19 @@
         <v>13</v>
       </c>
       <c r="B177" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C177">
         <v>9.99</v>
       </c>
       <c r="D177" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E177" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F177" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4072,19 +4075,19 @@
         <v>13</v>
       </c>
       <c r="B178" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C178">
         <v>5.49</v>
       </c>
       <c r="D178" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E178" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F178" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4092,19 +4095,19 @@
         <v>13</v>
       </c>
       <c r="B179" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C179">
         <v>9.99</v>
       </c>
       <c r="D179" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E179" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F179" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4112,19 +4115,19 @@
         <v>13</v>
       </c>
       <c r="B180" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C180">
         <v>2.49</v>
       </c>
       <c r="D180" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E180" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F180" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4132,19 +4135,19 @@
         <v>13</v>
       </c>
       <c r="B181" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C181">
         <v>0.79</v>
       </c>
       <c r="D181" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E181" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F181" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4152,19 +4155,19 @@
         <v>13</v>
       </c>
       <c r="B182" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C182">
         <v>0.79</v>
       </c>
       <c r="D182" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E182" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F182" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4172,19 +4175,19 @@
         <v>13</v>
       </c>
       <c r="B183" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C183">
         <v>0.79</v>
       </c>
       <c r="D183" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E183" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F183" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4192,19 +4195,19 @@
         <v>13</v>
       </c>
       <c r="B184" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C184">
         <v>8.99</v>
       </c>
       <c r="D184" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E184" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F184" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4212,19 +4215,19 @@
         <v>13</v>
       </c>
       <c r="B185" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C185">
         <v>14.99</v>
       </c>
       <c r="D185" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E185" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F185" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4232,19 +4235,19 @@
         <v>13</v>
       </c>
       <c r="B186" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C186">
         <v>4.49</v>
       </c>
       <c r="D186" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E186" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F186" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4252,19 +4255,19 @@
         <v>13</v>
       </c>
       <c r="B187" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C187">
         <v>12.99</v>
       </c>
       <c r="D187" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E187" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F187" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4272,19 +4275,19 @@
         <v>13</v>
       </c>
       <c r="B188" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C188">
         <v>19.99</v>
       </c>
       <c r="D188" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E188" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F188" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4292,19 +4295,19 @@
         <v>13</v>
       </c>
       <c r="B189" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C189">
         <v>1.49</v>
       </c>
       <c r="D189" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E189" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F189" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4312,19 +4315,19 @@
         <v>13</v>
       </c>
       <c r="B190" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C190">
         <v>1.79</v>
       </c>
       <c r="D190" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E190" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F190" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4332,19 +4335,19 @@
         <v>13</v>
       </c>
       <c r="B191" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C191">
         <v>3.99</v>
       </c>
       <c r="D191" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E191" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F191" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4352,19 +4355,19 @@
         <v>13</v>
       </c>
       <c r="B192" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C192">
         <v>6.99</v>
       </c>
       <c r="D192" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E192" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F192" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4372,19 +4375,499 @@
         <v>13</v>
       </c>
       <c r="B193" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C193">
         <v>1.49</v>
       </c>
       <c r="D193" t="s">
+        <v>47</v>
+      </c>
+      <c r="E193" t="s">
+        <v>49</v>
+      </c>
+      <c r="F193" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" t="s">
+        <v>14</v>
+      </c>
+      <c r="B194" t="s">
+        <v>15</v>
+      </c>
+      <c r="C194">
+        <v>139</v>
+      </c>
+      <c r="D194" t="s">
+        <v>39</v>
+      </c>
+      <c r="E194" t="s">
+        <v>48</v>
+      </c>
+      <c r="F194" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" t="s">
+        <v>14</v>
+      </c>
+      <c r="B195" t="s">
+        <v>16</v>
+      </c>
+      <c r="C195">
+        <v>106.96</v>
+      </c>
+      <c r="D195" t="s">
+        <v>39</v>
+      </c>
+      <c r="E195" t="s">
+        <v>48</v>
+      </c>
+      <c r="F195" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" t="s">
+        <v>14</v>
+      </c>
+      <c r="B196" t="s">
+        <v>17</v>
+      </c>
+      <c r="C196">
+        <v>15</v>
+      </c>
+      <c r="D196" t="s">
+        <v>40</v>
+      </c>
+      <c r="E196" t="s">
+        <v>48</v>
+      </c>
+      <c r="F196" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" t="s">
+        <v>14</v>
+      </c>
+      <c r="B197" t="s">
+        <v>18</v>
+      </c>
+      <c r="C197">
+        <v>24.99</v>
+      </c>
+      <c r="D197" t="s">
+        <v>41</v>
+      </c>
+      <c r="E197" t="s">
+        <v>48</v>
+      </c>
+      <c r="F197" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" t="s">
+        <v>14</v>
+      </c>
+      <c r="B198" t="s">
+        <v>19</v>
+      </c>
+      <c r="C198">
+        <v>109</v>
+      </c>
+      <c r="D198" t="s">
+        <v>41</v>
+      </c>
+      <c r="E198" t="s">
+        <v>48</v>
+      </c>
+      <c r="F198" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" t="s">
+        <v>14</v>
+      </c>
+      <c r="B199" t="s">
+        <v>20</v>
+      </c>
+      <c r="C199">
+        <v>69.98999999999999</v>
+      </c>
+      <c r="D199" t="s">
+        <v>41</v>
+      </c>
+      <c r="E199" t="s">
+        <v>48</v>
+      </c>
+      <c r="F199" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" t="s">
+        <v>14</v>
+      </c>
+      <c r="B200" t="s">
+        <v>21</v>
+      </c>
+      <c r="C200">
+        <v>49.99</v>
+      </c>
+      <c r="D200" t="s">
+        <v>41</v>
+      </c>
+      <c r="E200" t="s">
+        <v>48</v>
+      </c>
+      <c r="F200" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" t="s">
+        <v>14</v>
+      </c>
+      <c r="B201" t="s">
+        <v>22</v>
+      </c>
+      <c r="C201">
+        <v>9.99</v>
+      </c>
+      <c r="D201" t="s">
+        <v>41</v>
+      </c>
+      <c r="E201" t="s">
+        <v>48</v>
+      </c>
+      <c r="F201" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" t="s">
+        <v>14</v>
+      </c>
+      <c r="B202" t="s">
+        <v>23</v>
+      </c>
+      <c r="C202">
+        <v>5.49</v>
+      </c>
+      <c r="D202" t="s">
+        <v>41</v>
+      </c>
+      <c r="E202" t="s">
+        <v>48</v>
+      </c>
+      <c r="F202" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" t="s">
+        <v>14</v>
+      </c>
+      <c r="B203" t="s">
+        <v>24</v>
+      </c>
+      <c r="C203">
+        <v>9.99</v>
+      </c>
+      <c r="D203" t="s">
+        <v>42</v>
+      </c>
+      <c r="E203" t="s">
+        <v>48</v>
+      </c>
+      <c r="F203" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" t="s">
+        <v>14</v>
+      </c>
+      <c r="B204" t="s">
+        <v>25</v>
+      </c>
+      <c r="C204">
+        <v>2.49</v>
+      </c>
+      <c r="D204" t="s">
+        <v>42</v>
+      </c>
+      <c r="E204" t="s">
+        <v>48</v>
+      </c>
+      <c r="F204" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" t="s">
+        <v>14</v>
+      </c>
+      <c r="B205" t="s">
+        <v>26</v>
+      </c>
+      <c r="C205">
+        <v>0.79</v>
+      </c>
+      <c r="D205" t="s">
+        <v>43</v>
+      </c>
+      <c r="E205" t="s">
+        <v>48</v>
+      </c>
+      <c r="F205" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" t="s">
+        <v>14</v>
+      </c>
+      <c r="B206" t="s">
+        <v>27</v>
+      </c>
+      <c r="C206">
+        <v>0.79</v>
+      </c>
+      <c r="D206" t="s">
+        <v>43</v>
+      </c>
+      <c r="E206" t="s">
+        <v>48</v>
+      </c>
+      <c r="F206" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" t="s">
+        <v>14</v>
+      </c>
+      <c r="B207" t="s">
+        <v>28</v>
+      </c>
+      <c r="C207">
+        <v>0.79</v>
+      </c>
+      <c r="D207" t="s">
+        <v>43</v>
+      </c>
+      <c r="E207" t="s">
+        <v>48</v>
+      </c>
+      <c r="F207" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" t="s">
+        <v>14</v>
+      </c>
+      <c r="B208" t="s">
+        <v>29</v>
+      </c>
+      <c r="C208">
+        <v>8.99</v>
+      </c>
+      <c r="D208" t="s">
+        <v>44</v>
+      </c>
+      <c r="E208" t="s">
+        <v>48</v>
+      </c>
+      <c r="F208" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" t="s">
+        <v>14</v>
+      </c>
+      <c r="B209" t="s">
+        <v>30</v>
+      </c>
+      <c r="C209">
+        <v>14.99</v>
+      </c>
+      <c r="D209" t="s">
+        <v>44</v>
+      </c>
+      <c r="E209" t="s">
+        <v>48</v>
+      </c>
+      <c r="F209" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" t="s">
+        <v>14</v>
+      </c>
+      <c r="B210" t="s">
+        <v>31</v>
+      </c>
+      <c r="C210">
+        <v>4.49</v>
+      </c>
+      <c r="D210" t="s">
+        <v>45</v>
+      </c>
+      <c r="E210" t="s">
+        <v>49</v>
+      </c>
+      <c r="F210" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" t="s">
+        <v>14</v>
+      </c>
+      <c r="B211" t="s">
+        <v>32</v>
+      </c>
+      <c r="C211">
+        <v>12.99</v>
+      </c>
+      <c r="D211" t="s">
+        <v>45</v>
+      </c>
+      <c r="E211" t="s">
+        <v>49</v>
+      </c>
+      <c r="F211" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" t="s">
+        <v>14</v>
+      </c>
+      <c r="B212" t="s">
+        <v>33</v>
+      </c>
+      <c r="C212">
+        <v>19.99</v>
+      </c>
+      <c r="D212" t="s">
+        <v>45</v>
+      </c>
+      <c r="E212" t="s">
+        <v>49</v>
+      </c>
+      <c r="F212" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" t="s">
+        <v>14</v>
+      </c>
+      <c r="B213" t="s">
+        <v>34</v>
+      </c>
+      <c r="C213">
+        <v>1.49</v>
+      </c>
+      <c r="D213" t="s">
         <v>46</v>
       </c>
-      <c r="E193" t="s">
-        <v>48</v>
-      </c>
-      <c r="F193" t="s">
-        <v>49</v>
+      <c r="E213" t="s">
+        <v>49</v>
+      </c>
+      <c r="F213" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" t="s">
+        <v>14</v>
+      </c>
+      <c r="B214" t="s">
+        <v>35</v>
+      </c>
+      <c r="C214">
+        <v>1.79</v>
+      </c>
+      <c r="D214" t="s">
+        <v>46</v>
+      </c>
+      <c r="E214" t="s">
+        <v>49</v>
+      </c>
+      <c r="F214" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" t="s">
+        <v>14</v>
+      </c>
+      <c r="B215" t="s">
+        <v>36</v>
+      </c>
+      <c r="C215">
+        <v>3.99</v>
+      </c>
+      <c r="D215" t="s">
+        <v>47</v>
+      </c>
+      <c r="E215" t="s">
+        <v>49</v>
+      </c>
+      <c r="F215" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" t="s">
+        <v>14</v>
+      </c>
+      <c r="B216" t="s">
+        <v>37</v>
+      </c>
+      <c r="C216">
+        <v>6.99</v>
+      </c>
+      <c r="D216" t="s">
+        <v>47</v>
+      </c>
+      <c r="E216" t="s">
+        <v>49</v>
+      </c>
+      <c r="F216" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" t="s">
+        <v>14</v>
+      </c>
+      <c r="B217" t="s">
+        <v>38</v>
+      </c>
+      <c r="C217">
+        <v>1.49</v>
+      </c>
+      <c r="D217" t="s">
+        <v>47</v>
+      </c>
+      <c r="E217" t="s">
+        <v>49</v>
+      </c>
+      <c r="F217" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
